--- a/Horarios/Horario Facu.xlsx
+++ b/Horarios/Horario Facu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juli\OneDrive\FACU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario_juli\Documents\GitHub\UNLP\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30D3380-05B7-49CF-AD0D-7C4DE85C7F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8835A210-F588-454B-9B5A-0F6D18863D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="630" windowWidth="28680" windowHeight="15285" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1er cuatri" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="164">
   <si>
     <t>LUNES</t>
   </si>
@@ -91,15 +91,6 @@
     <t>24   12</t>
   </si>
   <si>
-    <t>Entreno              (18:45 a 20:30)</t>
-  </si>
-  <si>
-    <t>Entreno                (18:45 a 20:30 )</t>
-  </si>
-  <si>
-    <t>GYM (19 a 20)</t>
-  </si>
-  <si>
     <t>OC (Pract)                  (17 a 18:30) (Virt)</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
     <t>OC / CADP (pract)                  (18 a 20:30) (Prec)</t>
   </si>
   <si>
-    <t>Entreno                      (20 a 22:30)</t>
-  </si>
-  <si>
     <t>Matemática (Pract)                   (15 a 18) (Virt)</t>
   </si>
   <si>
@@ -139,15 +127,6 @@
     <t>OC (Pract) (A3)                  (17 a 18:30) (Prec)</t>
   </si>
   <si>
-    <t>Entreno                    (18:45 a 20:30 )</t>
-  </si>
-  <si>
-    <t>Entreno                         (18:45 a 20:30)</t>
-  </si>
-  <si>
-    <t>Entreno                          (18:45 a 20:30)</t>
-  </si>
-  <si>
     <t>OC (Pract)                     (17 a 18:30) (Virt)</t>
   </si>
   <si>
@@ -199,9 +178,6 @@
     <t>Taller TF (Pract) (-)                    (11:30 a 14:30)</t>
   </si>
   <si>
-    <t>Entreno                        (18:45 a 20:30 )</t>
-  </si>
-  <si>
     <t>AC T3(Pract) (-)                  (17 a 18:30)</t>
   </si>
   <si>
@@ -223,9 +199,6 @@
     <t>Matemática (Teo)                  (A15) (8 a 11) (Prec)</t>
   </si>
   <si>
-    <t>Entreno                       (18:45 a 20:30 )</t>
-  </si>
-  <si>
     <t>Matemática                   (A11) (15 a 18)</t>
   </si>
   <si>
@@ -238,9 +211,6 @@
     <t>Taller  (A4)                        (8 a 11)</t>
   </si>
   <si>
-    <t>Entreno                        (19:00 a 20:30 )</t>
-  </si>
-  <si>
     <t>AC (A14)                               (17 a 18:30)</t>
   </si>
   <si>
@@ -374,9 +344,6 @@
   </si>
   <si>
     <t>Diseño de base de Datos (DBD)</t>
-  </si>
-  <si>
-    <t>Entreno                         (19:00 a 21:00)</t>
   </si>
   <si>
     <t>OO1 (Consulta) (A5)             (9.30 a 12.30)</t>
@@ -547,9 +514,6 @@
     <t xml:space="preserve"> RyC (Prac) (A8)              (18 a 20) (T2)</t>
   </si>
   <si>
-    <t>Entreno                         (20:30 a 22:15)</t>
-  </si>
-  <si>
     <t>RyC (Teo) (A10b)              (9 a 11) (T1)</t>
   </si>
   <si>
@@ -659,7 +623,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,6 +766,14 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -877,11 +849,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
       </patternFill>
     </fill>
@@ -902,8 +869,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1428,6 +1400,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1445,11 +1432,11 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1501,9 +1488,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -1567,58 +1551,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1630,58 +1659,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="22" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1690,7 +1671,46 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="28" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="31" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="28" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="29" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="27" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1702,207 +1722,162 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="37" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="31" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="27" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="28" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="28" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="29" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="27" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="28" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="39" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="40" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="8" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="20" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="21" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="22" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="39" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="40" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="20" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="21" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="22" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="26" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="31" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="28" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="8" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="16" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="8" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="7" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1918,35 +1893,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="42" xfId="17"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="42" xfId="17" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="42" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="40% - Accent6" xfId="16" builtinId="51"/>
+    <cellStyle name="40% - Accent6" xfId="15" builtinId="51"/>
     <cellStyle name="60% - Accent1" xfId="12" builtinId="32"/>
     <cellStyle name="60% - Accent2" xfId="5" builtinId="36"/>
     <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
     <cellStyle name="60% - Accent5" xfId="11" builtinId="48"/>
-    <cellStyle name="60% - Accent6" xfId="17" builtinId="52"/>
+    <cellStyle name="60% - Accent6" xfId="16" builtinId="52"/>
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
     <cellStyle name="Accent2" xfId="8" builtinId="33"/>
-    <cellStyle name="Accent3" xfId="13" builtinId="37"/>
-    <cellStyle name="Accent4" xfId="14" builtinId="41"/>
-    <cellStyle name="Accent6" xfId="15" builtinId="49"/>
+    <cellStyle name="Accent4" xfId="13" builtinId="41"/>
+    <cellStyle name="Accent6" xfId="14" builtinId="49"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="7" builtinId="10"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2227,7 +2200,7 @@
   <dimension ref="B1:N37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N18"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,159 +2358,141 @@
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="60" t="s">
+      <c r="C9" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="57" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>31</v>
       </c>
       <c r="I9" s="15">
         <v>15</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="57" t="s">
         <v>27</v>
-      </c>
-      <c r="M9" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="65" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="66"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="58"/>
       <c r="I10" s="15">
         <v>16</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="66"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="58"/>
     </row>
     <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="65" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="63"/>
+      <c r="G11" s="59" t="s">
         <v>28</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="60" t="s">
-        <v>32</v>
       </c>
       <c r="I11" s="15">
         <v>17</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="65" t="s">
+      <c r="J11" s="62"/>
+      <c r="K11" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="63"/>
+      <c r="N11" s="59" t="s">
         <v>28</v>
-      </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="60" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="66"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="61"/>
+      <c r="G12" s="60"/>
       <c r="I12" s="15">
         <v>18</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="66"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="58"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="61"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>18</v>
-      </c>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
       <c r="I13" s="15">
         <v>19</v>
       </c>
-      <c r="J13" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="55" t="s">
-        <v>33</v>
-      </c>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="168"/>
     </row>
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="168"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="56"/>
+      <c r="G14" s="168"/>
       <c r="I14" s="15">
         <v>20</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="56"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="168"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="56"/>
+      <c r="N14" s="168"/>
     </row>
     <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
@@ -2606,7 +2561,7 @@
         <v>24</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="23"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -2655,12 +2610,12 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="71" t="s">
-        <v>23</v>
+      <c r="E24" s="55" t="s">
+        <v>20</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="71" t="s">
-        <v>22</v>
+      <c r="G24" s="55" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2669,9 +2624,9 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="71"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="71"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
@@ -2679,9 +2634,9 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="71"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="71"/>
+      <c r="G26" s="55"/>
     </row>
     <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -2689,9 +2644,9 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="71"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="71"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -2727,60 +2682,54 @@
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="69" t="s">
-        <v>21</v>
+      <c r="C31" s="54" t="s">
+        <v>18</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="72" t="s">
-        <v>24</v>
+      <c r="G31" s="56" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="69"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="72"/>
+      <c r="G32" s="56"/>
     </row>
     <row r="33" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="72"/>
+      <c r="G33" s="56"/>
     </row>
     <row r="34" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="70" t="s">
-        <v>25</v>
-      </c>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="70" t="s">
-        <v>25</v>
-      </c>
+      <c r="F34" s="168"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="70"/>
+      <c r="F35" s="168"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2805,28 +2754,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
-  <mergeCells count="28">
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="J13:J14"/>
+  <mergeCells count="20">
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M11"/>
@@ -2834,6 +2762,19 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="N11:N12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="G31:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2844,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:T64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,14 +2815,14 @@
       <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="75"/>
+      <c r="O2" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="89"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="15">
@@ -2921,13 +2862,13 @@
       <c r="O4" s="15">
         <v>9</v>
       </c>
-      <c r="P4" s="65" t="s">
-        <v>65</v>
+      <c r="P4" s="57" t="s">
+        <v>56</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="65" t="s">
-        <v>64</v>
+      <c r="S4" s="57" t="s">
+        <v>55</v>
       </c>
       <c r="T4" s="7"/>
     </row>
@@ -2943,10 +2884,10 @@
       <c r="O5" s="15">
         <v>10</v>
       </c>
-      <c r="P5" s="76"/>
+      <c r="P5" s="77"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="76"/>
+      <c r="S5" s="77"/>
       <c r="T5" s="7"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -3007,20 +2948,20 @@
       <c r="B9" s="15">
         <v>15</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>31</v>
+      <c r="E9" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>27</v>
       </c>
       <c r="O9" s="15">
         <v>14</v>
@@ -3035,23 +2976,23 @@
       <c r="B10" s="15">
         <v>16</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="66"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="58"/>
       <c r="O10" s="15">
         <v>15</v>
       </c>
-      <c r="P10" s="62" t="s">
-        <v>62</v>
+      <c r="P10" s="61" t="s">
+        <v>53</v>
       </c>
       <c r="Q10" s="7"/>
-      <c r="R10" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" s="62" t="s">
-        <v>62</v>
+      <c r="R10" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="61" t="s">
+        <v>53</v>
       </c>
       <c r="T10" s="7"/>
     </row>
@@ -3059,24 +3000,24 @@
       <c r="B11" s="15">
         <v>17</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="60" t="s">
-        <v>41</v>
+      <c r="C11" s="62"/>
+      <c r="D11" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="63"/>
+      <c r="G11" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="O11" s="15">
         <v>16</v>
       </c>
-      <c r="P11" s="63"/>
+      <c r="P11" s="62"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="63"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="62"/>
       <c r="T11" s="7"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,77 +3025,44 @@
         <v>18</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="66"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="61"/>
+      <c r="G12" s="60"/>
       <c r="O12" s="15">
         <v>17</v>
       </c>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="60" t="s">
-        <v>68</v>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="60"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="59" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
         <v>19</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>61</v>
-      </c>
       <c r="O13" s="15">
         <v>18</v>
       </c>
       <c r="P13" s="12"/>
-      <c r="Q13" s="61"/>
+      <c r="Q13" s="60"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="61"/>
+      <c r="T13" s="60"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
         <v>20</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="56"/>
+      <c r="D14" s="21"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="56"/>
       <c r="O14" s="15">
         <v>19</v>
-      </c>
-      <c r="P14" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="55" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
@@ -3169,11 +3077,8 @@
       <c r="O15" s="15">
         <v>20</v>
       </c>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="56"/>
+      <c r="Q15" s="21"/>
       <c r="S15" s="12"/>
-      <c r="T15" s="56"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="15">
@@ -3216,7 +3121,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="23"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -3234,29 +3139,29 @@
         <v>24</v>
       </c>
       <c r="P19" s="8"/>
-      <c r="Q19" s="23"/>
+      <c r="Q19" s="22"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
     </row>
     <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
-      <c r="O22" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="75"/>
+      <c r="B22" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+      <c r="O22" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="89"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
@@ -3296,13 +3201,13 @@
       <c r="B24" s="15">
         <v>9</v>
       </c>
-      <c r="C24" s="62" t="s">
-        <v>60</v>
+      <c r="C24" s="61" t="s">
+        <v>52</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="62" t="s">
-        <v>60</v>
+      <c r="F24" s="61" t="s">
+        <v>52</v>
       </c>
       <c r="G24" s="7"/>
       <c r="O24" s="15">
@@ -3318,13 +3223,13 @@
       <c r="B25" s="15">
         <v>10</v>
       </c>
-      <c r="C25" s="63"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="63"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="7"/>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O25" s="15">
         <v>10</v>
@@ -3339,12 +3244,12 @@
       <c r="B26" s="15">
         <v>11</v>
       </c>
-      <c r="C26" s="78" t="s">
-        <v>59</v>
+      <c r="C26" s="74" t="s">
+        <v>51</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="65" t="s">
-        <v>59</v>
+      <c r="E26" s="57" t="s">
+        <v>51</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -3352,55 +3257,55 @@
         <v>11</v>
       </c>
       <c r="P26" s="7"/>
-      <c r="Q26" s="80" t="s">
-        <v>52</v>
+      <c r="Q26" s="78" t="s">
+        <v>45</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="65" t="s">
-        <v>52</v>
+      <c r="T26" s="57" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="15">
         <v>12</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="76"/>
+      <c r="E27" s="77"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="J27" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+      <c r="J27" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
       <c r="O27" s="15">
         <v>12</v>
       </c>
       <c r="P27" s="7"/>
-      <c r="Q27" s="81"/>
+      <c r="Q27" s="79"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="76"/>
+      <c r="T27" s="77"/>
     </row>
     <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15">
         <v>13</v>
       </c>
-      <c r="C28" s="91"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="76"/>
+      <c r="E28" s="77"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="O28" s="15">
         <v>13</v>
       </c>
       <c r="P28" s="7"/>
-      <c r="Q28" s="81"/>
+      <c r="Q28" s="79"/>
       <c r="R28" s="12"/>
       <c r="S28" s="7"/>
-      <c r="T28" s="76"/>
+      <c r="T28" s="77"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="15">
@@ -3411,10 +3316,10 @@
       <c r="E29" s="12"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="J29" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" s="27"/>
+      <c r="J29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="26"/>
       <c r="O29" s="15">
         <v>14</v>
       </c>
@@ -3422,35 +3327,35 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="12"/>
       <c r="S29" s="7"/>
-      <c r="T29" s="66"/>
+      <c r="T29" s="58"/>
     </row>
     <row r="30" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="15">
         <v>15</v>
       </c>
-      <c r="C30" s="62" t="s">
-        <v>30</v>
+      <c r="C30" s="61" t="s">
+        <v>26</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>26</v>
       </c>
       <c r="G30" s="7"/>
       <c r="O30" s="15">
         <v>15</v>
       </c>
-      <c r="P30" s="62" t="s">
-        <v>30</v>
+      <c r="P30" s="61" t="s">
+        <v>26</v>
       </c>
       <c r="Q30" s="7"/>
-      <c r="R30" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="S30" s="62" t="s">
-        <v>30</v>
+      <c r="R30" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" s="61" t="s">
+        <v>26</v>
       </c>
       <c r="T30" s="7"/>
     </row>
@@ -3458,50 +3363,50 @@
       <c r="B31" s="15">
         <v>16</v>
       </c>
-      <c r="C31" s="63"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="4"/>
       <c r="E31" s="86"/>
-      <c r="F31" s="63"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="7"/>
-      <c r="J31" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
+      <c r="J31" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
       <c r="O31" s="15">
         <v>16</v>
       </c>
-      <c r="P31" s="63"/>
+      <c r="P31" s="62"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="63"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="62"/>
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="15">
         <v>17</v>
       </c>
-      <c r="C32" s="63"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="85" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="67" t="s">
-        <v>41</v>
+      <c r="F32" s="62"/>
+      <c r="G32" s="69" t="s">
+        <v>34</v>
       </c>
       <c r="O32" s="15">
         <v>17</v>
       </c>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="R32" s="61"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="60" t="s">
-        <v>54</v>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="R32" s="60"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="59" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
@@ -3512,81 +3417,45 @@
       <c r="D33" s="86"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="68"/>
-      <c r="J33" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
+      <c r="G33" s="70"/>
+      <c r="J33" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
       <c r="O33" s="15">
         <v>18</v>
       </c>
       <c r="P33" s="12"/>
-      <c r="Q33" s="61"/>
+      <c r="Q33" s="60"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="61"/>
+      <c r="T33" s="60"/>
     </row>
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="15">
         <v>19</v>
       </c>
-      <c r="C34" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="55" t="s">
-        <v>53</v>
-      </c>
       <c r="O34" s="15">
         <v>19</v>
-      </c>
-      <c r="P34" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q34" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="R34" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="S34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T34" s="55" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="15">
         <v>20</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="56"/>
+      <c r="D35" s="21"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="56"/>
-      <c r="J35" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
+      <c r="J35" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
       <c r="O35" s="15">
         <v>20</v>
       </c>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="56"/>
+      <c r="Q35" s="21"/>
       <c r="S35" s="12"/>
-      <c r="T35" s="56"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="15">
@@ -3647,7 +3516,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="8"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -3655,43 +3524,43 @@
         <v>24</v>
       </c>
       <c r="P39" s="8"/>
-      <c r="Q39" s="23"/>
+      <c r="Q39" s="22"/>
       <c r="R39" s="8"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
     </row>
     <row r="41" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="82" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C42" s="83"/>
       <c r="D42" s="83"/>
       <c r="E42" s="83"/>
       <c r="F42" s="83"/>
       <c r="G42" s="84"/>
-      <c r="O42" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="75"/>
+      <c r="O42" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="89"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="14"/>
@@ -3740,13 +3609,13 @@
         <v>9</v>
       </c>
       <c r="P44" s="7"/>
-      <c r="Q44" s="78" t="s">
-        <v>57</v>
+      <c r="Q44" s="74" t="s">
+        <v>49</v>
       </c>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
-      <c r="T44" s="65" t="s">
-        <v>57</v>
+      <c r="T44" s="57" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
@@ -3762,10 +3631,10 @@
         <v>10</v>
       </c>
       <c r="P45" s="7"/>
-      <c r="Q45" s="79"/>
+      <c r="Q45" s="75"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="76"/>
+      <c r="T45" s="77"/>
     </row>
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15">
@@ -3808,13 +3677,13 @@
         <v>13</v>
       </c>
       <c r="C48" s="7"/>
-      <c r="D48" s="60" t="s">
-        <v>49</v>
+      <c r="D48" s="59" t="s">
+        <v>42</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="60" t="s">
-        <v>49</v>
+      <c r="G48" s="59" t="s">
+        <v>42</v>
       </c>
       <c r="O48" s="15">
         <v>13</v>
@@ -3830,10 +3699,10 @@
         <v>14</v>
       </c>
       <c r="C49" s="7"/>
-      <c r="D49" s="61"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="12"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="61"/>
+      <c r="G49" s="60"/>
       <c r="O49" s="15">
         <v>14</v>
       </c>
@@ -3847,33 +3716,33 @@
       <c r="B50" s="15">
         <v>15</v>
       </c>
-      <c r="C50" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="65" t="s">
-        <v>50</v>
+      <c r="C50" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="57" t="s">
+        <v>43</v>
       </c>
       <c r="O50" s="15">
         <v>15</v>
       </c>
-      <c r="P50" s="62" t="s">
-        <v>30</v>
+      <c r="P50" s="61" t="s">
+        <v>26</v>
       </c>
       <c r="Q50" s="7"/>
-      <c r="R50" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="S50" s="62" t="s">
-        <v>30</v>
+      <c r="R50" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="S50" s="61" t="s">
+        <v>26</v>
       </c>
       <c r="T50" s="7"/>
     </row>
@@ -3881,40 +3750,40 @@
       <c r="B51" s="15">
         <v>16</v>
       </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="76"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="77"/>
       <c r="O51" s="15">
         <v>16</v>
       </c>
-      <c r="P51" s="63"/>
+      <c r="P51" s="62"/>
       <c r="Q51" s="7"/>
-      <c r="R51" s="77"/>
-      <c r="S51" s="63"/>
+      <c r="R51" s="81"/>
+      <c r="S51" s="62"/>
       <c r="T51" s="7"/>
     </row>
     <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="15">
         <v>17</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="76"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="77"/>
       <c r="O52" s="15">
         <v>17</v>
       </c>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="R52" s="61"/>
-      <c r="S52" s="63"/>
-      <c r="T52" s="60" t="s">
-        <v>54</v>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="R52" s="60"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="59" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3922,74 +3791,38 @@
         <v>18</v>
       </c>
       <c r="C53" s="12"/>
-      <c r="D53" s="87"/>
+      <c r="D53" s="80"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="66"/>
+      <c r="G53" s="58"/>
       <c r="O53" s="15">
         <v>18</v>
       </c>
       <c r="P53" s="12"/>
-      <c r="Q53" s="61"/>
+      <c r="Q53" s="60"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="61"/>
+      <c r="T53" s="60"/>
     </row>
     <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="15">
         <v>19</v>
       </c>
-      <c r="C54" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="55" t="s">
-        <v>53</v>
-      </c>
       <c r="O54" s="15">
         <v>19</v>
-      </c>
-      <c r="P54" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q54" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="R54" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="S54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T54" s="55" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="15">
         <v>20</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="56"/>
+      <c r="D55" s="21"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="56"/>
       <c r="O55" s="15">
         <v>20</v>
       </c>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="56"/>
+      <c r="Q55" s="21"/>
       <c r="S55" s="12"/>
-      <c r="T55" s="56"/>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="15">
@@ -4050,7 +3883,7 @@
         <v>24</v>
       </c>
       <c r="C59" s="8"/>
-      <c r="D59" s="23"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -4058,7 +3891,7 @@
         <v>24</v>
       </c>
       <c r="P59" s="8"/>
-      <c r="Q59" s="23"/>
+      <c r="Q59" s="22"/>
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
@@ -4066,63 +3899,7 @@
     <row r="63" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:20" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T26:T29"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="O42:T42"/>
-    <mergeCell ref="Q26:Q28"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="T54:T55"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="P50:P52"/>
-    <mergeCell ref="R50:R52"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="T52:T53"/>
+  <mergeCells count="50">
     <mergeCell ref="O22:T22"/>
     <mergeCell ref="O2:T2"/>
     <mergeCell ref="P4:P5"/>
@@ -4132,9 +3909,47 @@
     <mergeCell ref="S10:S12"/>
     <mergeCell ref="Q12:Q13"/>
     <mergeCell ref="T12:T13"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="R50:R52"/>
+    <mergeCell ref="S50:S52"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="O42:T42"/>
+    <mergeCell ref="Q26:Q28"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4145,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AB65"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V45" sqref="V45"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4162,269 +3977,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
     </row>
     <row r="2" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
     </row>
     <row r="3" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
     </row>
     <row r="4" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
     </row>
     <row r="6" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
     </row>
     <row r="7" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
     </row>
     <row r="8" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
     </row>
     <row r="9" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
     </row>
     <row r="10" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
     </row>
     <row r="11" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
     </row>
     <row r="12" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
     </row>
     <row r="13" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
     </row>
     <row r="14" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
     </row>
     <row r="15" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
     </row>
     <row r="16" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
     </row>
     <row r="21" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
     </row>
     <row r="22" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90"/>
-      <c r="I22" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="99"/>
+      <c r="B22" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+      <c r="I22" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="110"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
@@ -4459,7 +4274,7 @@
       <c r="N23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O23" s="29"/>
+      <c r="O23" s="28"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="6" t="s">
         <v>0</v>
@@ -4473,10 +4288,10 @@
       <c r="T23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="U23" s="42" t="s">
+      <c r="U23" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="V23" s="29"/>
+      <c r="V23" s="28"/>
       <c r="W23" s="14"/>
       <c r="X23" s="6" t="s">
         <v>0</v>
@@ -4490,7 +4305,7 @@
       <c r="AA23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AB23" s="42" t="s">
+      <c r="AB23" s="41" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4511,23 +4326,23 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="29"/>
+      <c r="O24" s="28"/>
       <c r="P24" s="15">
         <v>9</v>
       </c>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="32"/>
+      <c r="T24" s="31"/>
       <c r="U24" s="12"/>
-      <c r="V24" s="29"/>
+      <c r="V24" s="28"/>
       <c r="W24" s="15">
         <v>9</v>
       </c>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
       <c r="AB24" s="12"/>
     </row>
     <row r="25" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4535,8 +4350,8 @@
         <v>10</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="62" t="s">
-        <v>78</v>
+      <c r="D25" s="61" t="s">
+        <v>68</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -4545,77 +4360,77 @@
         <v>10</v>
       </c>
       <c r="J25" s="7"/>
-      <c r="K25" s="62" t="s">
-        <v>78</v>
+      <c r="K25" s="61" t="s">
+        <v>68</v>
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="4"/>
       <c r="N25" s="18"/>
-      <c r="O25" s="29"/>
+      <c r="O25" s="28"/>
       <c r="P25" s="15">
         <v>10</v>
       </c>
       <c r="Q25" s="12"/>
-      <c r="R25" s="62" t="s">
-        <v>78</v>
+      <c r="R25" s="61" t="s">
+        <v>68</v>
       </c>
       <c r="S25" s="12"/>
-      <c r="T25" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="U25" s="43"/>
-      <c r="V25" s="29"/>
+      <c r="T25" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="U25" s="42"/>
+      <c r="V25" s="28"/>
       <c r="W25" s="15">
         <v>10</v>
       </c>
       <c r="X25" s="12"/>
-      <c r="Y25" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB25" s="43"/>
+      <c r="Y25" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB25" s="42"/>
     </row>
     <row r="26" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15">
         <v>11</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="63"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="I26" s="15">
         <v>11</v>
       </c>
-      <c r="J26" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="63"/>
+      <c r="J26" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="62"/>
       <c r="L26" s="15"/>
       <c r="M26" s="4"/>
       <c r="N26" s="18"/>
-      <c r="O26" s="29"/>
+      <c r="O26" s="28"/>
       <c r="P26" s="15">
         <v>11</v>
       </c>
       <c r="Q26" s="13"/>
-      <c r="R26" s="63"/>
+      <c r="R26" s="62"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="100"/>
+      <c r="T26" s="113"/>
       <c r="U26" s="12"/>
-      <c r="V26" s="29"/>
+      <c r="V26" s="28"/>
       <c r="W26" s="15">
         <v>11</v>
       </c>
-      <c r="X26" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="100"/>
+      <c r="X26" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="113"/>
       <c r="AB26" s="12"/>
     </row>
     <row r="27" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4623,40 +4438,40 @@
         <v>12</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="64"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="I27" s="15">
         <v>12</v>
       </c>
-      <c r="J27" s="87"/>
-      <c r="K27" s="64"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="63"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="81" t="s">
-        <v>81</v>
+      <c r="M27" s="79" t="s">
+        <v>71</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="29"/>
+      <c r="O27" s="28"/>
       <c r="P27" s="15">
         <v>12</v>
       </c>
       <c r="Q27" s="13"/>
-      <c r="R27" s="64"/>
+      <c r="R27" s="63"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="101" t="s">
-        <v>81</v>
+      <c r="T27" s="111" t="s">
+        <v>71</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="29"/>
+      <c r="V27" s="28"/>
       <c r="W27" s="15">
         <v>12</v>
       </c>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="101" t="s">
-        <v>81</v>
+      <c r="X27" s="119"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="111" t="s">
+        <v>71</v>
       </c>
       <c r="AB27" s="12"/>
     </row>
@@ -4675,25 +4490,25 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="87"/>
+      <c r="M28" s="80"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="29"/>
+      <c r="O28" s="28"/>
       <c r="P28" s="15">
         <v>13</v>
       </c>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="102"/>
+      <c r="T28" s="112"/>
       <c r="U28" s="12"/>
-      <c r="V28" s="29"/>
+      <c r="V28" s="28"/>
       <c r="W28" s="15">
         <v>13</v>
       </c>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="102"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="112"/>
       <c r="AB28" s="12"/>
     </row>
     <row r="29" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4703,11 +4518,11 @@
       <c r="C29" s="7"/>
       <c r="D29" s="20"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="108" t="s">
-        <v>77</v>
+      <c r="F29" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="91" t="s">
+        <v>67</v>
       </c>
       <c r="I29" s="15">
         <v>14</v>
@@ -4715,32 +4530,32 @@
       <c r="J29" s="7"/>
       <c r="K29" s="20"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="N29" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="O29" s="29"/>
+      <c r="M29" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="O29" s="28"/>
       <c r="P29" s="15">
         <v>14</v>
       </c>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="103" t="s">
-        <v>73</v>
+      <c r="T29" s="114" t="s">
+        <v>63</v>
       </c>
       <c r="U29" s="13"/>
-      <c r="V29" s="29"/>
+      <c r="V29" s="28"/>
       <c r="W29" s="15">
         <v>14</v>
       </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="103" t="s">
-        <v>73</v>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="114" t="s">
+        <v>63</v>
       </c>
       <c r="AB29" s="13"/>
     </row>
@@ -4750,35 +4565,35 @@
       </c>
       <c r="C30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="80"/>
       <c r="I30" s="15">
         <v>15</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="12"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="29"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="28"/>
       <c r="P30" s="15">
         <v>15</v>
       </c>
       <c r="Q30" s="12"/>
-      <c r="R30" s="108" t="s">
-        <v>75</v>
+      <c r="R30" s="91" t="s">
+        <v>65</v>
       </c>
       <c r="S30" s="12"/>
-      <c r="T30" s="104"/>
+      <c r="T30" s="115"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="29"/>
+      <c r="V30" s="28"/>
       <c r="W30" s="15">
         <v>15</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="104"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="115"/>
       <c r="AB30" s="13"/>
     </row>
     <row r="31" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4786,11 +4601,11 @@
         <v>16</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="108" t="s">
-        <v>75</v>
+      <c r="D31" s="91" t="s">
+        <v>65</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="63"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="7"/>
       <c r="I31" s="15">
         <v>16</v>
@@ -4798,84 +4613,66 @@
       <c r="J31" s="7"/>
       <c r="K31" s="12"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="63"/>
+      <c r="M31" s="62"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="29"/>
+      <c r="O31" s="28"/>
       <c r="P31" s="15">
         <v>16</v>
       </c>
       <c r="Q31" s="12"/>
-      <c r="R31" s="87"/>
+      <c r="R31" s="80"/>
       <c r="S31" s="12"/>
-      <c r="T31" s="104"/>
+      <c r="T31" s="115"/>
       <c r="U31" s="12"/>
-      <c r="V31" s="29"/>
+      <c r="V31" s="28"/>
       <c r="W31" s="15">
         <v>16</v>
       </c>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="104"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="115"/>
       <c r="AB31" s="12"/>
     </row>
     <row r="32" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="15">
         <v>17</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>79</v>
+      <c r="D32" s="80"/>
+      <c r="F32" s="69" t="s">
+        <v>61</v>
       </c>
       <c r="I32" s="15">
         <v>17</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="K32" s="12"/>
-      <c r="L32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M32" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="O32" s="29"/>
+      <c r="M32" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O32" s="28"/>
       <c r="P32" s="15">
         <v>17</v>
       </c>
       <c r="Q32" s="13"/>
-      <c r="R32" s="41" t="s">
-        <v>92</v>
+      <c r="R32" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="S32" s="13"/>
-      <c r="T32" s="44" t="s">
-        <v>91</v>
+      <c r="T32" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="U32" s="12"/>
-      <c r="V32" s="29"/>
+      <c r="V32" s="28"/>
       <c r="W32" s="15">
         <v>17</v>
       </c>
       <c r="X32" s="13"/>
-      <c r="Y32" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="44" t="s">
-        <v>91</v>
+      <c r="Y32" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="AB32" s="12"/>
     </row>
@@ -4884,46 +4681,46 @@
         <v>18</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="94" t="s">
-        <v>72</v>
+      <c r="D33" s="92" t="s">
+        <v>62</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="68"/>
+      <c r="F33" s="70"/>
       <c r="G33" s="7"/>
       <c r="I33" s="15">
         <v>18</v>
       </c>
       <c r="J33" s="7"/>
-      <c r="K33" s="94" t="s">
-        <v>72</v>
+      <c r="K33" s="92" t="s">
+        <v>62</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="68"/>
+      <c r="M33" s="70"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="29"/>
+      <c r="O33" s="28"/>
       <c r="P33" s="15">
         <v>18</v>
       </c>
       <c r="Q33" s="7"/>
-      <c r="R33" s="60" t="s">
-        <v>89</v>
+      <c r="R33" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="S33" s="7"/>
-      <c r="T33" s="94" t="s">
-        <v>90</v>
+      <c r="T33" s="92" t="s">
+        <v>80</v>
       </c>
       <c r="U33" s="12"/>
-      <c r="V33" s="29"/>
+      <c r="V33" s="28"/>
       <c r="W33" s="15">
         <v>18</v>
       </c>
       <c r="X33" s="7"/>
-      <c r="Y33" s="60" t="s">
-        <v>89</v>
+      <c r="Y33" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="Z33" s="15"/>
-      <c r="AA33" s="94" t="s">
-        <v>90</v>
+      <c r="AA33" s="92" t="s">
+        <v>80</v>
       </c>
       <c r="AB33" s="12"/>
     </row>
@@ -4932,47 +4729,35 @@
         <v>19</v>
       </c>
       <c r="C34" s="7"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="55" t="s">
-        <v>70</v>
+      <c r="D34" s="93"/>
+      <c r="E34" s="78" t="s">
+        <v>66</v>
       </c>
       <c r="I34" s="15">
         <v>19</v>
       </c>
       <c r="J34" s="7"/>
-      <c r="K34" s="95"/>
+      <c r="K34" s="93"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="N34" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="O34" s="29"/>
+      <c r="O34" s="28"/>
       <c r="P34" s="15">
         <v>19</v>
       </c>
       <c r="Q34" s="7"/>
-      <c r="R34" s="61"/>
+      <c r="R34" s="60"/>
       <c r="S34" s="12"/>
-      <c r="T34" s="95"/>
+      <c r="T34" s="93"/>
       <c r="U34" s="13"/>
-      <c r="V34" s="29"/>
+      <c r="V34" s="28"/>
       <c r="W34" s="15">
         <v>19</v>
       </c>
       <c r="X34" s="7"/>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="55" t="s">
-        <v>70</v>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="64" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4980,115 +4765,93 @@
         <v>20</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="81"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
+      <c r="E35" s="79"/>
       <c r="I35" s="15">
         <v>20</v>
       </c>
       <c r="J35" s="7"/>
-      <c r="K35" s="55" t="s">
-        <v>69</v>
-      </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="29"/>
+      <c r="O35" s="28"/>
       <c r="P35" s="15">
         <v>20</v>
       </c>
       <c r="Q35" s="12"/>
       <c r="R35" s="13"/>
       <c r="S35" s="12"/>
-      <c r="T35" s="45"/>
+      <c r="T35" s="44"/>
       <c r="U35" s="13"/>
-      <c r="V35" s="29"/>
+      <c r="V35" s="28"/>
       <c r="W35" s="15">
         <v>20</v>
       </c>
       <c r="X35" s="12"/>
-      <c r="Y35" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB35" s="57"/>
+      <c r="Y35" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB35" s="65"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="15">
         <v>21</v>
       </c>
       <c r="C36" s="7"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
+      <c r="E36" s="80"/>
       <c r="I36" s="15">
         <v>21</v>
       </c>
       <c r="J36" s="7"/>
-      <c r="K36" s="57"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="29"/>
+      <c r="O36" s="28"/>
       <c r="P36" s="15">
         <v>21</v>
       </c>
       <c r="Q36" s="12"/>
       <c r="R36" s="13"/>
       <c r="S36" s="12"/>
-      <c r="T36" s="45"/>
+      <c r="T36" s="44"/>
       <c r="U36" s="13"/>
-      <c r="V36" s="29"/>
+      <c r="V36" s="28"/>
       <c r="W36" s="15">
         <v>21</v>
       </c>
       <c r="X36" s="12"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="93"/>
-      <c r="AB36" s="57"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="118"/>
+      <c r="AB36" s="65"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="15">
         <v>22</v>
       </c>
       <c r="C37" s="7"/>
-      <c r="D37" s="56"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
       <c r="I37" s="15">
         <v>22</v>
       </c>
       <c r="J37" s="7"/>
-      <c r="K37" s="56"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="29"/>
+      <c r="O37" s="28"/>
       <c r="P37" s="15">
         <v>22</v>
       </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="13"/>
       <c r="S37" s="12"/>
-      <c r="T37" s="45"/>
+      <c r="T37" s="44"/>
       <c r="U37" s="13"/>
-      <c r="V37" s="29"/>
+      <c r="V37" s="28"/>
       <c r="W37" s="15">
         <v>22</v>
       </c>
       <c r="X37" s="12"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="93"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="118"/>
       <c r="AB37" s="12"/>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
@@ -5108,23 +4871,23 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="29"/>
+      <c r="O38" s="28"/>
       <c r="P38" s="15">
         <v>23</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="12"/>
-      <c r="T38" s="32"/>
+      <c r="T38" s="31"/>
       <c r="U38" s="12"/>
-      <c r="V38" s="29"/>
+      <c r="V38" s="28"/>
       <c r="W38" s="15">
         <v>23</v>
       </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
       <c r="AB38" s="12"/>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5132,7 +4895,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="8"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -5140,11 +4903,11 @@
         <v>24</v>
       </c>
       <c r="J39" s="8"/>
-      <c r="K39" s="23"/>
+      <c r="K39" s="22"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="29"/>
+      <c r="O39" s="28"/>
       <c r="P39" s="16">
         <v>24</v>
       </c>
@@ -5153,7 +4916,7 @@
       <c r="S39" s="8"/>
       <c r="T39" s="16"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="29"/>
+      <c r="V39" s="28"/>
       <c r="W39" s="16">
         <v>24</v>
       </c>
@@ -5164,126 +4927,126 @@
       <c r="AB39" s="8"/>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="I42" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="J42" s="121"/>
-      <c r="K42" s="121"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="121"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="I42" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
     </row>
     <row r="44" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
     </row>
     <row r="46" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
     </row>
     <row r="47" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
-      <c r="I47" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="90"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q47" s="98"/>
-      <c r="R47" s="98"/>
-      <c r="S47" s="98"/>
-      <c r="T47" s="98"/>
-      <c r="U47" s="99"/>
-      <c r="V47" s="29"/>
+      <c r="B47" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="89"/>
+      <c r="I47" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="109"/>
+      <c r="R47" s="109"/>
+      <c r="S47" s="109"/>
+      <c r="T47" s="109"/>
+      <c r="U47" s="110"/>
+      <c r="V47" s="28"/>
     </row>
     <row r="48" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
@@ -5318,7 +5081,7 @@
       <c r="N48" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="29"/>
+      <c r="O48" s="28"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="6" t="s">
         <v>0</v>
@@ -5335,7 +5098,7 @@
       <c r="U48" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="29"/>
+      <c r="V48" s="28"/>
     </row>
     <row r="49" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="15">
@@ -5353,10 +5116,10 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="O49" s="29"/>
+      <c r="N49" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="O49" s="28"/>
       <c r="P49" s="15">
         <v>9</v>
       </c>
@@ -5365,7 +5128,7 @@
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
-      <c r="V49" s="29"/>
+      <c r="V49" s="28"/>
     </row>
     <row r="50" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="15">
@@ -5374,21 +5137,21 @@
       <c r="C50" s="15"/>
       <c r="D50" s="4"/>
       <c r="E50" s="18"/>
-      <c r="F50" s="113" t="s">
-        <v>83</v>
+      <c r="F50" s="100" t="s">
+        <v>73</v>
       </c>
       <c r="G50" s="7"/>
       <c r="I50" s="15">
         <v>10</v>
       </c>
       <c r="J50" s="7"/>
-      <c r="K50" s="62" t="s">
-        <v>78</v>
+      <c r="K50" s="61" t="s">
+        <v>68</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="106"/>
-      <c r="O50" s="29"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="28"/>
       <c r="P50" s="15">
         <v>10</v>
       </c>
@@ -5397,28 +5160,28 @@
       <c r="S50" s="5"/>
       <c r="T50" s="4"/>
       <c r="U50" s="5"/>
-      <c r="V50" s="29"/>
+      <c r="V50" s="28"/>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="15">
         <v>11</v>
       </c>
-      <c r="C51" s="115" t="s">
-        <v>80</v>
+      <c r="C51" s="102" t="s">
+        <v>70</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="18"/>
-      <c r="F51" s="114"/>
+      <c r="F51" s="101"/>
       <c r="G51" s="7"/>
       <c r="I51" s="15">
         <v>11</v>
       </c>
       <c r="J51" s="7"/>
-      <c r="K51" s="63"/>
+      <c r="K51" s="62"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="107"/>
-      <c r="O51" s="29"/>
+      <c r="N51" s="116"/>
+      <c r="O51" s="28"/>
       <c r="P51" s="15">
         <v>11</v>
       </c>
@@ -5427,28 +5190,28 @@
       <c r="S51" s="5"/>
       <c r="T51" s="4"/>
       <c r="U51" s="5"/>
-      <c r="V51" s="29"/>
+      <c r="V51" s="28"/>
     </row>
     <row r="52" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="15">
         <v>12</v>
       </c>
-      <c r="C52" s="116"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="4"/>
       <c r="E52" s="18"/>
-      <c r="F52" s="117" t="s">
-        <v>81</v>
+      <c r="F52" s="104" t="s">
+        <v>71</v>
       </c>
       <c r="G52" s="7"/>
       <c r="I52" s="15">
         <v>12</v>
       </c>
       <c r="J52" s="7"/>
-      <c r="K52" s="64"/>
+      <c r="K52" s="63"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="29"/>
+      <c r="O52" s="28"/>
       <c r="P52" s="15">
         <v>12</v>
       </c>
@@ -5457,7 +5220,7 @@
       <c r="S52" s="5"/>
       <c r="T52" s="4"/>
       <c r="U52" s="5"/>
-      <c r="V52" s="29"/>
+      <c r="V52" s="28"/>
     </row>
     <row r="53" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="15">
@@ -5466,7 +5229,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="118"/>
+      <c r="F53" s="105"/>
       <c r="G53" s="7"/>
       <c r="I53" s="15">
         <v>13</v>
@@ -5476,7 +5239,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="29"/>
+      <c r="O53" s="28"/>
       <c r="P53" s="15">
         <v>13</v>
       </c>
@@ -5485,7 +5248,7 @@
       <c r="S53" s="5"/>
       <c r="T53" s="4"/>
       <c r="U53" s="5"/>
-      <c r="V53" s="29"/>
+      <c r="V53" s="28"/>
     </row>
     <row r="54" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="15">
@@ -5493,22 +5256,22 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="20"/>
-      <c r="E54" s="32"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="119" t="s">
-        <v>77</v>
+      <c r="G54" s="106" t="s">
+        <v>67</v>
       </c>
       <c r="I54" s="15">
         <v>14</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="105" t="s">
-        <v>73</v>
+      <c r="L54" s="21"/>
+      <c r="M54" s="98" t="s">
+        <v>63</v>
       </c>
       <c r="N54" s="4"/>
-      <c r="O54" s="29"/>
+      <c r="O54" s="28"/>
       <c r="P54" s="15">
         <v>14</v>
       </c>
@@ -5517,7 +5280,7 @@
       <c r="S54" s="5"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
-      <c r="V54" s="29"/>
+      <c r="V54" s="28"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="15">
@@ -5527,16 +5290,16 @@
       <c r="D55" s="12"/>
       <c r="E55" s="15"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="120"/>
+      <c r="G55" s="107"/>
       <c r="I55" s="15">
         <v>15</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="18"/>
-      <c r="M55" s="106"/>
+      <c r="M55" s="99"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="29"/>
+      <c r="O55" s="28"/>
       <c r="P55" s="15">
         <v>15</v>
       </c>
@@ -5545,44 +5308,44 @@
       <c r="S55" s="5"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="29"/>
+      <c r="V55" s="28"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="15">
         <v>16</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="33"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="32"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="34"/>
+      <c r="G56" s="33"/>
       <c r="I56" s="15">
         <v>16</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="106"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="99"/>
       <c r="N56" s="5"/>
-      <c r="O56" s="29"/>
+      <c r="O56" s="28"/>
       <c r="P56" s="15">
         <v>16</v>
       </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
-      <c r="T56" s="38"/>
+      <c r="T56" s="37"/>
       <c r="U56" s="5"/>
-      <c r="V56" s="29"/>
+      <c r="V56" s="28"/>
     </row>
     <row r="57" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="15">
         <v>17</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="111"/>
+      <c r="D57" s="96"/>
       <c r="E57" s="5"/>
       <c r="F57" s="4"/>
       <c r="G57" s="5"/>
@@ -5590,92 +5353,92 @@
         <v>17</v>
       </c>
       <c r="J57" s="5"/>
-      <c r="K57" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="L57" s="37"/>
+      <c r="K57" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="L57" s="36"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-      <c r="O57" s="29"/>
+      <c r="O57" s="28"/>
       <c r="P57" s="15">
         <v>17</v>
       </c>
       <c r="Q57" s="4"/>
-      <c r="R57" s="39" t="s">
-        <v>92</v>
+      <c r="R57" s="38" t="s">
+        <v>82</v>
       </c>
       <c r="S57" s="4"/>
-      <c r="T57" s="35" t="s">
-        <v>91</v>
+      <c r="T57" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="U57" s="5"/>
-      <c r="V57" s="29"/>
+      <c r="V57" s="28"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="15">
         <v>18</v>
       </c>
-      <c r="C58" s="113" t="s">
-        <v>93</v>
+      <c r="C58" s="100" t="s">
+        <v>83</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="113" t="s">
-        <v>93</v>
+      <c r="F58" s="100" t="s">
+        <v>83</v>
       </c>
       <c r="G58" s="5"/>
       <c r="I58" s="15">
         <v>18</v>
       </c>
       <c r="J58" s="5"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="37"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="36"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="29"/>
+      <c r="O58" s="28"/>
       <c r="P58" s="15">
         <v>18</v>
       </c>
       <c r="Q58" s="7"/>
-      <c r="R58" s="94" t="s">
-        <v>89</v>
+      <c r="R58" s="92" t="s">
+        <v>79</v>
       </c>
       <c r="S58" s="7"/>
-      <c r="T58" s="94" t="s">
-        <v>90</v>
+      <c r="T58" s="92" t="s">
+        <v>80</v>
       </c>
       <c r="U58" s="5"/>
-      <c r="V58" s="29"/>
+      <c r="V58" s="28"/>
     </row>
     <row r="59" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="15">
         <v>19</v>
       </c>
-      <c r="C59" s="114"/>
+      <c r="C59" s="101"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="F59" s="114"/>
+      <c r="E59" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="101"/>
       <c r="G59" s="4"/>
       <c r="I59" s="15">
         <v>19</v>
       </c>
       <c r="J59" s="5"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="37"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="36"/>
       <c r="M59" s="5"/>
       <c r="N59" s="4"/>
-      <c r="O59" s="29"/>
+      <c r="O59" s="28"/>
       <c r="P59" s="15">
         <v>19</v>
       </c>
       <c r="Q59" s="7"/>
-      <c r="R59" s="95"/>
+      <c r="R59" s="93"/>
       <c r="S59" s="5"/>
-      <c r="T59" s="95"/>
+      <c r="T59" s="93"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="29"/>
+      <c r="V59" s="28"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="15">
@@ -5683,7 +5446,7 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="110"/>
+      <c r="E60" s="95"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="I60" s="15">
@@ -5691,10 +5454,10 @@
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="37"/>
+      <c r="L60" s="36"/>
       <c r="M60" s="5"/>
       <c r="N60" s="4"/>
-      <c r="O60" s="29"/>
+      <c r="O60" s="28"/>
       <c r="P60" s="15">
         <v>20</v>
       </c>
@@ -5703,7 +5466,7 @@
       <c r="S60" s="5"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="29"/>
+      <c r="V60" s="28"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="15">
@@ -5711,7 +5474,7 @@
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="111"/>
+      <c r="E61" s="96"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="I61" s="15">
@@ -5719,10 +5482,10 @@
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="37"/>
+      <c r="L61" s="36"/>
       <c r="M61" s="5"/>
       <c r="N61" s="4"/>
-      <c r="O61" s="29"/>
+      <c r="O61" s="28"/>
       <c r="P61" s="15">
         <v>21</v>
       </c>
@@ -5731,7 +5494,7 @@
       <c r="S61" s="5"/>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
-      <c r="V61" s="29"/>
+      <c r="V61" s="28"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="15">
@@ -5747,10 +5510,10 @@
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="37"/>
+      <c r="L62" s="36"/>
       <c r="M62" s="5"/>
       <c r="N62" s="4"/>
-      <c r="O62" s="29"/>
+      <c r="O62" s="28"/>
       <c r="P62" s="15">
         <v>22</v>
       </c>
@@ -5759,7 +5522,7 @@
       <c r="S62" s="5"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
-      <c r="V62" s="29"/>
+      <c r="V62" s="28"/>
     </row>
     <row r="63" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="15">
@@ -5775,19 +5538,19 @@
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="37"/>
+      <c r="L63" s="36"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
-      <c r="O63" s="29"/>
+      <c r="O63" s="28"/>
       <c r="P63" s="15">
         <v>23</v>
       </c>
       <c r="Q63" s="7"/>
-      <c r="R63" s="36"/>
+      <c r="R63" s="35"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
-      <c r="V63" s="29"/>
+      <c r="V63" s="28"/>
     </row>
     <row r="64" spans="2:22" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="16">
@@ -5802,7 +5565,7 @@
         <v>24</v>
       </c>
       <c r="J64" s="8"/>
-      <c r="K64" s="23"/>
+      <c r="K64" s="22"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
@@ -5810,7 +5573,7 @@
         <v>24</v>
       </c>
       <c r="Q64" s="8"/>
-      <c r="R64" s="23"/>
+      <c r="R64" s="22"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
@@ -5820,7 +5583,7 @@
         <v>24</v>
       </c>
       <c r="C65" s="8"/>
-      <c r="D65" s="23"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -5828,7 +5591,7 @@
         <v>24</v>
       </c>
       <c r="J65" s="8"/>
-      <c r="K65" s="23"/>
+      <c r="K65" s="22"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
@@ -5836,20 +5599,49 @@
         <v>24</v>
       </c>
       <c r="Q65" s="8"/>
-      <c r="R65" s="23"/>
+      <c r="R65" s="22"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="K35:K37"/>
+  <mergeCells count="53">
+    <mergeCell ref="AA35:AA37"/>
+    <mergeCell ref="AB34:AB36"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y35:Y37"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="Y25:Y27"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AA29:AA31"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="P47:U47"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="P22:U22"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="G54:G55"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="D25:D27"/>
@@ -5866,42 +5658,7 @@
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="M27:M28"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="P22:U22"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="N49:N51"/>
-    <mergeCell ref="P47:U47"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="Y25:Y27"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AA29:AA31"/>
-    <mergeCell ref="AA35:AA37"/>
-    <mergeCell ref="AB34:AB36"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y35:Y37"/>
+    <mergeCell ref="I42:N42"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5912,8 +5669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA970DF-FA77-45A1-B8BC-DF08C334477B}">
   <dimension ref="B1:AB65"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5929,235 +5686,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
     </row>
     <row r="2" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
     </row>
     <row r="3" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
     </row>
     <row r="4" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
     </row>
     <row r="6" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
     </row>
     <row r="7" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
     </row>
     <row r="8" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
     </row>
     <row r="9" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
     </row>
     <row r="10" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
     </row>
     <row r="11" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
     </row>
     <row r="12" spans="14:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
     </row>
     <row r="13" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
     </row>
     <row r="14" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
     </row>
     <row r="15" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
     </row>
     <row r="16" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
     </row>
     <row r="19" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
     </row>
     <row r="20" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="90"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
+      <c r="B20" s="150" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="J20" s="168"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
     </row>
     <row r="21" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="6" t="s">
         <v>0</v>
       </c>
@@ -6173,62 +5931,62 @@
       <c r="G21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
     </row>
     <row r="22" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <v>7</v>
       </c>
-      <c r="C22" s="42"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="17"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="I22" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="99"/>
+      <c r="I22" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="110"/>
     </row>
     <row r="23" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="46">
+      <c r="B23" s="45">
         <v>8</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="142" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="149" t="s">
-        <v>132</v>
+      <c r="F23" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="120" t="s">
+        <v>121</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="6" t="s">
@@ -6246,7 +6004,7 @@
       <c r="N23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O23" s="29"/>
+      <c r="O23" s="28"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="6" t="s">
         <v>0</v>
@@ -6260,10 +6018,10 @@
       <c r="T23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="U23" s="42" t="s">
+      <c r="U23" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="V23" s="29"/>
+      <c r="V23" s="28"/>
       <c r="W23" s="14"/>
       <c r="X23" s="6" t="s">
         <v>0</v>
@@ -6277,7 +6035,7 @@
       <c r="AA23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AB23" s="42" t="s">
+      <c r="AB23" s="41" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6288,8 +6046,8 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="150"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="121"/>
       <c r="I24" s="15">
         <v>9</v>
       </c>
@@ -6298,23 +6056,23 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="29"/>
+      <c r="O24" s="28"/>
       <c r="P24" s="15">
         <v>9</v>
       </c>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="32"/>
+      <c r="T24" s="31"/>
       <c r="U24" s="12"/>
-      <c r="V24" s="29"/>
+      <c r="V24" s="28"/>
       <c r="W24" s="15">
         <v>9</v>
       </c>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
       <c r="AB24" s="12"/>
     </row>
     <row r="25" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6324,46 +6082,46 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="151"/>
+      <c r="F25" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="122"/>
       <c r="I25" s="15">
         <v>10</v>
       </c>
       <c r="J25" s="7"/>
-      <c r="K25" s="62" t="s">
-        <v>78</v>
+      <c r="K25" s="61" t="s">
+        <v>68</v>
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="4"/>
       <c r="N25" s="18"/>
-      <c r="O25" s="29"/>
+      <c r="O25" s="28"/>
       <c r="P25" s="15">
         <v>10</v>
       </c>
       <c r="Q25" s="12"/>
-      <c r="R25" s="62" t="s">
-        <v>78</v>
+      <c r="R25" s="61" t="s">
+        <v>68</v>
       </c>
       <c r="S25" s="12"/>
-      <c r="T25" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="U25" s="43"/>
-      <c r="V25" s="29"/>
+      <c r="T25" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="U25" s="42"/>
+      <c r="V25" s="28"/>
       <c r="W25" s="15">
         <v>10</v>
       </c>
       <c r="X25" s="12"/>
-      <c r="Y25" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB25" s="43"/>
+      <c r="Y25" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB25" s="42"/>
     </row>
     <row r="26" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15">
@@ -6372,39 +6130,39 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="124" t="s">
-        <v>98</v>
+      <c r="F26" s="81"/>
+      <c r="G26" s="127" t="s">
+        <v>88</v>
       </c>
       <c r="I26" s="15">
         <v>11</v>
       </c>
-      <c r="J26" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="63"/>
+      <c r="J26" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="62"/>
       <c r="L26" s="15"/>
       <c r="M26" s="4"/>
       <c r="N26" s="18"/>
-      <c r="O26" s="29"/>
+      <c r="O26" s="28"/>
       <c r="P26" s="15">
         <v>11</v>
       </c>
       <c r="Q26" s="13"/>
-      <c r="R26" s="63"/>
+      <c r="R26" s="62"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="100"/>
+      <c r="T26" s="113"/>
       <c r="U26" s="12"/>
-      <c r="V26" s="29"/>
+      <c r="V26" s="28"/>
       <c r="W26" s="15">
         <v>11</v>
       </c>
-      <c r="X26" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="100"/>
+      <c r="X26" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="113"/>
       <c r="AB26" s="12"/>
     </row>
     <row r="27" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6412,42 +6170,42 @@
         <v>12</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="153" t="s">
-        <v>131</v>
+      <c r="D27" s="130" t="s">
+        <v>120</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="144"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="143"/>
       <c r="I27" s="15">
         <v>12</v>
       </c>
-      <c r="J27" s="87"/>
-      <c r="K27" s="64"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="63"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="81" t="s">
-        <v>81</v>
+      <c r="M27" s="79" t="s">
+        <v>71</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="29"/>
+      <c r="O27" s="28"/>
       <c r="P27" s="15">
         <v>12</v>
       </c>
       <c r="Q27" s="13"/>
-      <c r="R27" s="64"/>
+      <c r="R27" s="63"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="101" t="s">
-        <v>81</v>
+      <c r="T27" s="111" t="s">
+        <v>71</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="29"/>
+      <c r="V27" s="28"/>
       <c r="W27" s="15">
         <v>12</v>
       </c>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="101" t="s">
-        <v>81</v>
+      <c r="X27" s="119"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="111" t="s">
+        <v>71</v>
       </c>
       <c r="AB27" s="12"/>
     </row>
@@ -6456,11 +6214,11 @@
         <v>13</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="134"/>
+      <c r="D28" s="131"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="143" t="s">
-        <v>100</v>
+      <c r="G28" s="142" t="s">
+        <v>90</v>
       </c>
       <c r="I28" s="15">
         <v>13</v>
@@ -6468,25 +6226,25 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="87"/>
+      <c r="M28" s="80"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="29"/>
+      <c r="O28" s="28"/>
       <c r="P28" s="15">
         <v>13</v>
       </c>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="102"/>
+      <c r="T28" s="112"/>
       <c r="U28" s="12"/>
-      <c r="V28" s="29"/>
+      <c r="V28" s="28"/>
       <c r="W28" s="15">
         <v>13</v>
       </c>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="102"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="112"/>
       <c r="AB28" s="12"/>
     </row>
     <row r="29" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6494,48 +6252,48 @@
         <v>14</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="122" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="154" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="143"/>
+      <c r="D29" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="142"/>
       <c r="I29" s="15">
         <v>14</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="20"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="N29" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="O29" s="29"/>
+      <c r="M29" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="O29" s="28"/>
       <c r="P29" s="15">
         <v>14</v>
       </c>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="103" t="s">
-        <v>73</v>
+      <c r="T29" s="114" t="s">
+        <v>63</v>
       </c>
       <c r="U29" s="13"/>
-      <c r="V29" s="29"/>
+      <c r="V29" s="28"/>
       <c r="W29" s="15">
         <v>14</v>
       </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="103" t="s">
-        <v>73</v>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="114" t="s">
+        <v>63</v>
       </c>
       <c r="AB29" s="13"/>
     </row>
@@ -6544,11 +6302,11 @@
         <v>15</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="129" t="s">
-        <v>133</v>
+      <c r="D30" s="81"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="124" t="s">
+        <v>122</v>
       </c>
       <c r="I30" s="15">
         <v>15</v>
@@ -6556,27 +6314,27 @@
       <c r="J30" s="7"/>
       <c r="K30" s="12"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="29"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="28"/>
       <c r="P30" s="15">
         <v>15</v>
       </c>
       <c r="Q30" s="12"/>
-      <c r="R30" s="108" t="s">
-        <v>75</v>
+      <c r="R30" s="91" t="s">
+        <v>65</v>
       </c>
       <c r="S30" s="12"/>
-      <c r="T30" s="104"/>
+      <c r="T30" s="115"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="29"/>
+      <c r="V30" s="28"/>
       <c r="W30" s="15">
         <v>15</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="104"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="115"/>
       <c r="AB30" s="13"/>
     </row>
     <row r="31" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6584,37 +6342,37 @@
         <v>16</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="156"/>
-      <c r="G31" s="130"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="134"/>
+      <c r="G31" s="125"/>
       <c r="I31" s="15">
         <v>16</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="12"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="63"/>
+      <c r="M31" s="62"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="29"/>
+      <c r="O31" s="28"/>
       <c r="P31" s="15">
         <v>16</v>
       </c>
       <c r="Q31" s="12"/>
-      <c r="R31" s="87"/>
+      <c r="R31" s="80"/>
       <c r="S31" s="12"/>
-      <c r="T31" s="104"/>
+      <c r="T31" s="115"/>
       <c r="U31" s="12"/>
-      <c r="V31" s="29"/>
+      <c r="V31" s="28"/>
       <c r="W31" s="15">
         <v>16</v>
       </c>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="104"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="115"/>
       <c r="AB31" s="12"/>
     </row>
     <row r="32" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6623,49 +6381,45 @@
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="128"/>
+      <c r="E32" s="129"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="48"/>
+      <c r="G32" s="47"/>
       <c r="I32" s="15">
         <v>17</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="J32" s="170"/>
       <c r="K32" s="12"/>
-      <c r="L32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M32" s="67" t="s">
-        <v>71</v>
+      <c r="L32" s="170"/>
+      <c r="M32" s="69" t="s">
+        <v>61</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="O32" s="29"/>
+        <v>69</v>
+      </c>
+      <c r="O32" s="28"/>
       <c r="P32" s="15">
         <v>17</v>
       </c>
       <c r="Q32" s="13"/>
-      <c r="R32" s="41" t="s">
-        <v>92</v>
+      <c r="R32" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="S32" s="13"/>
-      <c r="T32" s="44" t="s">
-        <v>91</v>
+      <c r="T32" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="U32" s="12"/>
-      <c r="V32" s="29"/>
+      <c r="V32" s="28"/>
       <c r="W32" s="15">
         <v>17</v>
       </c>
       <c r="X32" s="13"/>
-      <c r="Y32" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="44" t="s">
-        <v>91</v>
+      <c r="Y32" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="AB32" s="12"/>
     </row>
@@ -6673,11 +6427,11 @@
       <c r="B33" s="15">
         <v>18</v>
       </c>
-      <c r="C33" s="153" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="149" t="s">
-        <v>138</v>
+      <c r="C33" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="120" t="s">
+        <v>127</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -6686,36 +6440,36 @@
         <v>18</v>
       </c>
       <c r="J33" s="7"/>
-      <c r="K33" s="94" t="s">
-        <v>72</v>
+      <c r="K33" s="92" t="s">
+        <v>62</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="68"/>
+      <c r="M33" s="70"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="29"/>
+      <c r="O33" s="28"/>
       <c r="P33" s="15">
         <v>18</v>
       </c>
       <c r="Q33" s="7"/>
-      <c r="R33" s="60" t="s">
-        <v>89</v>
+      <c r="R33" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="S33" s="7"/>
-      <c r="T33" s="94" t="s">
-        <v>90</v>
+      <c r="T33" s="92" t="s">
+        <v>80</v>
       </c>
       <c r="U33" s="12"/>
-      <c r="V33" s="29"/>
+      <c r="V33" s="28"/>
       <c r="W33" s="15">
         <v>18</v>
       </c>
       <c r="X33" s="7"/>
-      <c r="Y33" s="60" t="s">
-        <v>89</v>
+      <c r="Y33" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="Z33" s="15"/>
-      <c r="AA33" s="94" t="s">
-        <v>90</v>
+      <c r="AA33" s="92" t="s">
+        <v>80</v>
       </c>
       <c r="AB33" s="12"/>
     </row>
@@ -6723,129 +6477,113 @@
       <c r="B34" s="15">
         <v>19</v>
       </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="124" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="145" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="147" t="s">
-        <v>112</v>
-      </c>
+      <c r="C34" s="131"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="127" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="169"/>
+      <c r="G34" s="169"/>
       <c r="I34" s="15">
         <v>19</v>
       </c>
       <c r="J34" s="7"/>
-      <c r="K34" s="95"/>
+      <c r="K34" s="93"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="N34" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="O34" s="29"/>
+      <c r="M34" s="169"/>
+      <c r="N34" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" s="28"/>
       <c r="P34" s="15">
         <v>19</v>
       </c>
       <c r="Q34" s="7"/>
-      <c r="R34" s="61"/>
+      <c r="R34" s="60"/>
       <c r="S34" s="12"/>
-      <c r="T34" s="95"/>
+      <c r="T34" s="93"/>
       <c r="U34" s="13"/>
-      <c r="V34" s="29"/>
+      <c r="V34" s="28"/>
       <c r="W34" s="15">
         <v>19</v>
       </c>
       <c r="X34" s="7"/>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="55" t="s">
-        <v>112</v>
-      </c>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="169"/>
     </row>
     <row r="35" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="15">
         <v>20</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="147" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="125"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="148"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="169"/>
+      <c r="G35" s="169"/>
       <c r="I35" s="15">
         <v>20</v>
       </c>
       <c r="J35" s="7"/>
-      <c r="K35" s="55" t="s">
-        <v>69</v>
-      </c>
+      <c r="K35" s="169"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="29"/>
+      <c r="M35" s="169"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="28"/>
       <c r="P35" s="15">
         <v>20</v>
       </c>
       <c r="Q35" s="12"/>
       <c r="R35" s="13"/>
       <c r="S35" s="12"/>
-      <c r="T35" s="45"/>
+      <c r="T35" s="44"/>
       <c r="U35" s="13"/>
-      <c r="V35" s="29"/>
+      <c r="V35" s="28"/>
       <c r="W35" s="15">
         <v>20</v>
       </c>
       <c r="X35" s="12"/>
-      <c r="Y35" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB35" s="57"/>
+      <c r="Y35" s="169"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="169"/>
+      <c r="AB35" s="169"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="15">
         <v>21</v>
       </c>
       <c r="C36" s="7"/>
-      <c r="D36" s="157"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="148"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="169"/>
       <c r="I36" s="15">
         <v>21</v>
       </c>
       <c r="J36" s="7"/>
-      <c r="K36" s="57"/>
+      <c r="K36" s="169"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="29"/>
+      <c r="M36" s="169"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="28"/>
       <c r="P36" s="15">
         <v>21</v>
       </c>
       <c r="Q36" s="12"/>
       <c r="R36" s="13"/>
       <c r="S36" s="12"/>
-      <c r="T36" s="45"/>
+      <c r="T36" s="44"/>
       <c r="U36" s="13"/>
-      <c r="V36" s="29"/>
+      <c r="V36" s="28"/>
       <c r="W36" s="15">
         <v>21</v>
       </c>
       <c r="X36" s="12"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="93"/>
-      <c r="AB36" s="57"/>
+      <c r="Y36" s="169"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="169"/>
+      <c r="AB36" s="169"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="15">
@@ -6860,27 +6598,27 @@
         <v>22</v>
       </c>
       <c r="J37" s="7"/>
-      <c r="K37" s="56"/>
+      <c r="K37" s="169"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="29"/>
+      <c r="M37" s="169"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="28"/>
       <c r="P37" s="15">
         <v>22</v>
       </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="13"/>
       <c r="S37" s="12"/>
-      <c r="T37" s="45"/>
+      <c r="T37" s="44"/>
       <c r="U37" s="13"/>
-      <c r="V37" s="29"/>
+      <c r="V37" s="28"/>
       <c r="W37" s="15">
         <v>22</v>
       </c>
       <c r="X37" s="12"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="93"/>
+      <c r="Y37" s="169"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="169"/>
       <c r="AB37" s="12"/>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
@@ -6900,23 +6638,23 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="29"/>
+      <c r="O38" s="28"/>
       <c r="P38" s="15">
         <v>23</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="12"/>
-      <c r="T38" s="32"/>
+      <c r="T38" s="31"/>
       <c r="U38" s="12"/>
-      <c r="V38" s="29"/>
+      <c r="V38" s="28"/>
       <c r="W38" s="15">
         <v>23</v>
       </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
       <c r="AB38" s="12"/>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6924,7 +6662,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="8"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -6932,11 +6670,11 @@
         <v>24</v>
       </c>
       <c r="J39" s="8"/>
-      <c r="K39" s="23"/>
+      <c r="K39" s="22"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="29"/>
+      <c r="O39" s="28"/>
       <c r="P39" s="16">
         <v>24</v>
       </c>
@@ -6945,7 +6683,7 @@
       <c r="S39" s="8"/>
       <c r="T39" s="16"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="29"/>
+      <c r="V39" s="28"/>
       <c r="W39" s="16">
         <v>24</v>
       </c>
@@ -6956,112 +6694,112 @@
       <c r="AB39" s="8"/>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="I42" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="J42" s="121"/>
-      <c r="K42" s="121"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="121"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="I42" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
     </row>
     <row r="44" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
     </row>
     <row r="45" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="75"/>
-      <c r="I45" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q45" s="98"/>
-      <c r="R45" s="98"/>
-      <c r="S45" s="98"/>
-      <c r="T45" s="98"/>
-      <c r="U45" s="99"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="136" t="s">
-        <v>111</v>
-      </c>
-      <c r="X45" s="137"/>
-      <c r="Y45" s="137"/>
-      <c r="Z45" s="137"/>
-      <c r="AA45" s="137"/>
-      <c r="AB45" s="138"/>
+      <c r="B45" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="89"/>
+      <c r="I45" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
+      <c r="U45" s="110"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="135" t="s">
+        <v>101</v>
+      </c>
+      <c r="X45" s="136"/>
+      <c r="Y45" s="136"/>
+      <c r="Z45" s="136"/>
+      <c r="AA45" s="136"/>
+      <c r="AB45" s="137"/>
     </row>
     <row r="46" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
@@ -7096,7 +6834,7 @@
       <c r="N46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O46" s="29"/>
+      <c r="O46" s="28"/>
       <c r="P46" s="14"/>
       <c r="Q46" s="6" t="s">
         <v>0</v>
@@ -7113,7 +6851,7 @@
       <c r="U46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V46" s="29"/>
+      <c r="V46" s="28"/>
       <c r="W46" s="14"/>
       <c r="X46" s="6" t="s">
         <v>0</v>
@@ -7135,10 +6873,10 @@
       <c r="B47" s="15">
         <v>7</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="7"/>
       <c r="I47" s="15">
         <v>7</v>
@@ -7148,7 +6886,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="29"/>
+      <c r="O47" s="28"/>
       <c r="P47" s="15">
         <v>7</v>
       </c>
@@ -7157,7 +6895,7 @@
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
-      <c r="V47" s="29"/>
+      <c r="V47" s="28"/>
       <c r="W47" s="15">
         <v>7</v>
       </c>
@@ -7171,12 +6909,12 @@
       <c r="B48" s="7">
         <v>8</v>
       </c>
-      <c r="C48" s="129" t="s">
-        <v>122</v>
+      <c r="C48" s="124" t="s">
+        <v>111</v>
       </c>
       <c r="D48" s="7"/>
-      <c r="E48" s="129" t="s">
-        <v>123</v>
+      <c r="E48" s="124" t="s">
+        <v>112</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="7"/>
@@ -7184,15 +6922,15 @@
         <v>8</v>
       </c>
       <c r="J48" s="7"/>
-      <c r="K48" s="124" t="s">
-        <v>124</v>
+      <c r="K48" s="127" t="s">
+        <v>113</v>
       </c>
       <c r="L48" s="7"/>
-      <c r="M48" s="62" t="s">
-        <v>125</v>
+      <c r="M48" s="61" t="s">
+        <v>114</v>
       </c>
       <c r="N48" s="7"/>
-      <c r="O48" s="29"/>
+      <c r="O48" s="28"/>
       <c r="P48" s="15">
         <v>8</v>
       </c>
@@ -7200,10 +6938,10 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
-      <c r="U48" s="133" t="s">
-        <v>110</v>
-      </c>
-      <c r="V48" s="29"/>
+      <c r="U48" s="148" t="s">
+        <v>100</v>
+      </c>
+      <c r="V48" s="28"/>
       <c r="W48" s="15">
         <v>8</v>
       </c>
@@ -7211,39 +6949,39 @@
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
-      <c r="AB48" s="109" t="s">
-        <v>116</v>
+      <c r="AB48" s="94" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <v>9</v>
       </c>
-      <c r="C49" s="130"/>
+      <c r="C49" s="125"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="130"/>
+      <c r="E49" s="125"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="I49" s="15">
         <v>9</v>
       </c>
       <c r="J49" s="7"/>
-      <c r="K49" s="125"/>
+      <c r="K49" s="128"/>
       <c r="L49" s="7"/>
-      <c r="M49" s="63"/>
+      <c r="M49" s="62"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="29"/>
+      <c r="O49" s="28"/>
       <c r="P49" s="15">
         <v>9</v>
       </c>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
-      <c r="T49" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="U49" s="134"/>
-      <c r="V49" s="29"/>
+      <c r="T49" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="U49" s="131"/>
+      <c r="V49" s="28"/>
       <c r="W49" s="15">
         <v>9</v>
       </c>
@@ -7251,14 +6989,14 @@
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
-      <c r="AB49" s="110"/>
+      <c r="AB49" s="95"/>
     </row>
     <row r="50" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="15">
         <v>10</v>
       </c>
-      <c r="C50" s="152" t="s">
-        <v>115</v>
+      <c r="C50" s="123" t="s">
+        <v>104</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -7272,16 +7010,16 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="29"/>
+      <c r="O50" s="28"/>
       <c r="P50" s="15">
         <v>10</v>
       </c>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
-      <c r="T50" s="77"/>
-      <c r="U50" s="134"/>
-      <c r="V50" s="29"/>
+      <c r="T50" s="81"/>
+      <c r="U50" s="131"/>
+      <c r="V50" s="28"/>
       <c r="W50" s="15">
         <v>10</v>
       </c>
@@ -7295,7 +7033,7 @@
       <c r="B51" s="15">
         <v>11</v>
       </c>
-      <c r="C51" s="117"/>
+      <c r="C51" s="104"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -7307,27 +7045,27 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="O51" s="29"/>
+      <c r="N51" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="O51" s="28"/>
       <c r="P51" s="15">
         <v>11</v>
       </c>
       <c r="Q51" s="7"/>
-      <c r="R51" s="133" t="s">
-        <v>107</v>
+      <c r="R51" s="148" t="s">
+        <v>97</v>
       </c>
       <c r="S51" s="7"/>
-      <c r="T51" s="61"/>
-      <c r="U51" s="134"/>
-      <c r="V51" s="29"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="131"/>
+      <c r="V51" s="28"/>
       <c r="W51" s="15">
         <v>11</v>
       </c>
       <c r="X51" s="7"/>
-      <c r="Y51" s="122" t="s">
-        <v>129</v>
+      <c r="Y51" s="126" t="s">
+        <v>118</v>
       </c>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
@@ -7337,7 +7075,7 @@
       <c r="B52" s="15">
         <v>12</v>
       </c>
-      <c r="C52" s="118"/>
+      <c r="C52" s="105"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -7349,22 +7087,22 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="106"/>
-      <c r="O52" s="29"/>
+      <c r="N52" s="99"/>
+      <c r="O52" s="28"/>
       <c r="P52" s="15">
         <v>12</v>
       </c>
       <c r="Q52" s="7"/>
-      <c r="R52" s="134"/>
+      <c r="R52" s="131"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
-      <c r="U52" s="134"/>
-      <c r="V52" s="29"/>
+      <c r="U52" s="131"/>
+      <c r="V52" s="28"/>
       <c r="W52" s="15">
         <v>12</v>
       </c>
       <c r="X52" s="7"/>
-      <c r="Y52" s="117"/>
+      <c r="Y52" s="104"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
@@ -7385,24 +7123,24 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
-      <c r="N53" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="O53" s="29"/>
+      <c r="N53" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="O53" s="28"/>
       <c r="P53" s="15">
         <v>13</v>
       </c>
       <c r="Q53" s="7"/>
-      <c r="R53" s="135"/>
+      <c r="R53" s="149"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
-      <c r="U53" s="135"/>
-      <c r="V53" s="29"/>
+      <c r="U53" s="149"/>
+      <c r="V53" s="28"/>
       <c r="W53" s="15">
         <v>13</v>
       </c>
       <c r="X53" s="7"/>
-      <c r="Y53" s="118"/>
+      <c r="Y53" s="105"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
@@ -7413,11 +7151,11 @@
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="122" t="s">
-        <v>119</v>
+      <c r="E54" s="126" t="s">
+        <v>108</v>
       </c>
       <c r="F54" s="7"/>
-      <c r="G54" s="31"/>
+      <c r="G54" s="30"/>
       <c r="I54" s="15">
         <v>14</v>
       </c>
@@ -7425,27 +7163,27 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="29"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="28"/>
       <c r="P54" s="15">
         <v>14</v>
       </c>
       <c r="Q54" s="7"/>
-      <c r="R54" s="60" t="s">
-        <v>106</v>
+      <c r="R54" s="59" t="s">
+        <v>96</v>
       </c>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
-      <c r="V54" s="29"/>
+      <c r="V54" s="28"/>
       <c r="W54" s="15">
         <v>14</v>
       </c>
       <c r="X54" s="7"/>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
-      <c r="AA54" s="139" t="s">
-        <v>117</v>
+      <c r="AA54" s="138" t="s">
+        <v>106</v>
       </c>
       <c r="AB54" s="7"/>
     </row>
@@ -7455,10 +7193,10 @@
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="117"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="129" t="s">
-        <v>121</v>
+      <c r="G55" s="124" t="s">
+        <v>110</v>
       </c>
       <c r="I55" s="15">
         <v>15</v>
@@ -7468,36 +7206,36 @@
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="29"/>
+      <c r="O55" s="28"/>
       <c r="P55" s="15">
         <v>15</v>
       </c>
       <c r="Q55" s="7"/>
-      <c r="R55" s="77"/>
+      <c r="R55" s="81"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
-      <c r="V55" s="29"/>
+      <c r="V55" s="28"/>
       <c r="W55" s="15">
         <v>15</v>
       </c>
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
-      <c r="AA55" s="140"/>
+      <c r="AA55" s="139"/>
       <c r="AB55" s="7"/>
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B56" s="15">
         <v>16</v>
       </c>
-      <c r="C56" s="31"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="128" t="s">
-        <v>120</v>
+      <c r="E56" s="129" t="s">
+        <v>109</v>
       </c>
       <c r="F56" s="7"/>
-      <c r="G56" s="130"/>
+      <c r="G56" s="125"/>
       <c r="I56" s="15">
         <v>16</v>
       </c>
@@ -7506,23 +7244,23 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="29"/>
+      <c r="O56" s="28"/>
       <c r="P56" s="15">
         <v>16</v>
       </c>
       <c r="Q56" s="7"/>
-      <c r="R56" s="61"/>
+      <c r="R56" s="60"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
-      <c r="V56" s="29"/>
+      <c r="V56" s="28"/>
       <c r="W56" s="15">
         <v>16</v>
       </c>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
-      <c r="AA56" s="141"/>
+      <c r="AA56" s="140"/>
       <c r="AB56" s="7"/>
     </row>
     <row r="57" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7531,11 +7269,11 @@
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="115" t="s">
-        <v>114</v>
-      </c>
-      <c r="G57" s="48"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="47"/>
       <c r="I57" s="15">
         <v>17</v>
       </c>
@@ -7543,23 +7281,23 @@
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
-      <c r="N57" s="131" t="s">
-        <v>104</v>
-      </c>
-      <c r="O57" s="29"/>
+      <c r="N57" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="O57" s="28"/>
       <c r="P57" s="15">
         <v>17</v>
       </c>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="133" t="s">
-        <v>108</v>
-      </c>
-      <c r="T57" s="133" t="s">
-        <v>109</v>
+      <c r="S57" s="148" t="s">
+        <v>98</v>
+      </c>
+      <c r="T57" s="148" t="s">
+        <v>99</v>
       </c>
       <c r="U57" s="7"/>
-      <c r="V57" s="29"/>
+      <c r="V57" s="28"/>
       <c r="W57" s="15">
         <v>17</v>
       </c>
@@ -7576,7 +7314,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="116"/>
+      <c r="F58" s="103"/>
       <c r="G58" s="7"/>
       <c r="I58" s="15">
         <v>18</v>
@@ -7585,23 +7323,23 @@
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="132"/>
-      <c r="O58" s="29"/>
+      <c r="N58" s="147"/>
+      <c r="O58" s="28"/>
       <c r="P58" s="15">
         <v>18</v>
       </c>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="134"/>
-      <c r="T58" s="134"/>
+      <c r="S58" s="131"/>
+      <c r="T58" s="131"/>
       <c r="U58" s="7"/>
-      <c r="V58" s="29"/>
+      <c r="V58" s="28"/>
       <c r="W58" s="15">
         <v>18</v>
       </c>
       <c r="X58" s="7"/>
-      <c r="Y58" s="122" t="s">
-        <v>130</v>
+      <c r="Y58" s="126" t="s">
+        <v>119</v>
       </c>
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
@@ -7621,30 +7359,30 @@
       </c>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
-      <c r="L59" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="M59" s="131" t="s">
-        <v>103</v>
-      </c>
-      <c r="N59" s="126" t="s">
-        <v>102</v>
-      </c>
-      <c r="O59" s="29"/>
+      <c r="L59" s="144" t="s">
+        <v>91</v>
+      </c>
+      <c r="M59" s="146" t="s">
+        <v>93</v>
+      </c>
+      <c r="N59" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="O59" s="28"/>
       <c r="P59" s="15">
         <v>19</v>
       </c>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="135"/>
+      <c r="S59" s="149"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
-      <c r="V59" s="29"/>
+      <c r="V59" s="28"/>
       <c r="W59" s="15">
         <v>19</v>
       </c>
       <c r="X59" s="7"/>
-      <c r="Y59" s="117"/>
+      <c r="Y59" s="104"/>
       <c r="Z59" s="7"/>
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
@@ -7663,10 +7401,10 @@
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
-      <c r="L60" s="127"/>
-      <c r="M60" s="132"/>
-      <c r="N60" s="127"/>
-      <c r="O60" s="29"/>
+      <c r="L60" s="145"/>
+      <c r="M60" s="147"/>
+      <c r="N60" s="145"/>
+      <c r="O60" s="28"/>
       <c r="P60" s="15">
         <v>20</v>
       </c>
@@ -7675,12 +7413,12 @@
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
-      <c r="V60" s="29"/>
+      <c r="V60" s="28"/>
       <c r="W60" s="15">
         <v>20</v>
       </c>
       <c r="X60" s="7"/>
-      <c r="Y60" s="118"/>
+      <c r="Y60" s="105"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
       <c r="AB60" s="7"/>
@@ -7702,7 +7440,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="29"/>
+      <c r="O61" s="28"/>
       <c r="P61" s="15">
         <v>21</v>
       </c>
@@ -7711,7 +7449,7 @@
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
-      <c r="V61" s="29"/>
+      <c r="V61" s="28"/>
       <c r="W61" s="15">
         <v>21</v>
       </c>
@@ -7738,7 +7476,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="29"/>
+      <c r="O62" s="28"/>
       <c r="P62" s="15">
         <v>22</v>
       </c>
@@ -7747,7 +7485,7 @@
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
-      <c r="V62" s="29"/>
+      <c r="V62" s="28"/>
       <c r="W62" s="15">
         <v>22</v>
       </c>
@@ -7774,7 +7512,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="29"/>
+      <c r="O63" s="28"/>
       <c r="P63" s="15">
         <v>23</v>
       </c>
@@ -7783,7 +7521,7 @@
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
-      <c r="V63" s="29"/>
+      <c r="V63" s="28"/>
       <c r="W63" s="15">
         <v>23</v>
       </c>
@@ -7806,7 +7544,7 @@
         <v>24</v>
       </c>
       <c r="J64" s="8"/>
-      <c r="K64" s="23"/>
+      <c r="K64" s="22"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
@@ -7814,7 +7552,7 @@
         <v>24</v>
       </c>
       <c r="Q64" s="8"/>
-      <c r="R64" s="23"/>
+      <c r="R64" s="22"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
@@ -7822,7 +7560,7 @@
         <v>24</v>
       </c>
       <c r="X64" s="8"/>
-      <c r="Y64" s="23"/>
+      <c r="Y64" s="22"/>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8"/>
       <c r="AB64" s="8"/>
@@ -7840,7 +7578,7 @@
         <v>24</v>
       </c>
       <c r="J65" s="8"/>
-      <c r="K65" s="23"/>
+      <c r="K65" s="22"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
@@ -7848,7 +7586,7 @@
         <v>24</v>
       </c>
       <c r="Q65" s="8"/>
-      <c r="R65" s="23"/>
+      <c r="R65" s="22"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
@@ -7856,75 +7594,13 @@
         <v>24</v>
       </c>
       <c r="X65" s="8"/>
-      <c r="Y65" s="23"/>
+      <c r="Y65" s="22"/>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8"/>
       <c r="AB65" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="W45:AB45"/>
-    <mergeCell ref="AA54:AA56"/>
-    <mergeCell ref="AB48:AB49"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="AB34:AB36"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="Y35:Y37"/>
-    <mergeCell ref="AA35:AA37"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="P45:U45"/>
-    <mergeCell ref="T49:T51"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="S57:S59"/>
-    <mergeCell ref="T57:T58"/>
-    <mergeCell ref="U48:U53"/>
-    <mergeCell ref="R54:R56"/>
-    <mergeCell ref="R51:R53"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="AA29:AA31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N34:N37"/>
+  <mergeCells count="70">
     <mergeCell ref="Y51:Y53"/>
     <mergeCell ref="Y58:Y60"/>
     <mergeCell ref="B20:G20"/>
@@ -7941,6 +7617,60 @@
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="T27:T28"/>
     <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="AA29:AA31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="P45:U45"/>
+    <mergeCell ref="T49:T51"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="S57:S59"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="U48:U53"/>
+    <mergeCell ref="R54:R56"/>
+    <mergeCell ref="R51:R53"/>
+    <mergeCell ref="W45:AB45"/>
+    <mergeCell ref="AA54:AA56"/>
+    <mergeCell ref="AB48:AB49"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -7954,8 +7684,8 @@
   </sheetPr>
   <dimension ref="B1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7971,46 +7701,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="9:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I1" s="88"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
     </row>
     <row r="2" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I2" s="14"/>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
     </row>
     <row r="3" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I3" s="15">
@@ -8021,14 +7751,14 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
     </row>
     <row r="4" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I4" s="15">
@@ -8039,14 +7769,14 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
     </row>
     <row r="5" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I5" s="15">
@@ -8057,14 +7787,14 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
     </row>
     <row r="6" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I6" s="15">
@@ -8075,14 +7805,14 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
     </row>
     <row r="7" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I7" s="15">
@@ -8093,14 +7823,14 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
     </row>
     <row r="8" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I8" s="15">
@@ -8111,14 +7841,14 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
     </row>
     <row r="9" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I9" s="15">
@@ -8129,14 +7859,14 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
     </row>
     <row r="10" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I10" s="15">
@@ -8147,14 +7877,14 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
     </row>
     <row r="11" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I11" s="15">
@@ -8165,14 +7895,14 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
     </row>
     <row r="12" spans="9:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="15">
@@ -8183,14 +7913,14 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
     </row>
     <row r="13" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I13" s="15">
@@ -8201,14 +7931,14 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
     </row>
     <row r="14" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I14" s="15">
@@ -8219,14 +7949,14 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
     </row>
     <row r="15" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I15" s="15">
@@ -8237,13 +7967,13 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
     </row>
     <row r="16" spans="9:22" x14ac:dyDescent="0.25">
       <c r="I16" s="15">
@@ -8254,86 +7984,86 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="I17" s="15">
         <v>23</v>
       </c>
-      <c r="J17" s="51"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
     </row>
     <row r="18" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I18" s="16">
         <v>24</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
     </row>
     <row r="19" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
     </row>
     <row r="20" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="90"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="29"/>
+      <c r="B20" s="150" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="28"/>
     </row>
     <row r="21" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="6" t="s">
         <v>0</v>
       </c>
@@ -8349,15 +8079,15 @@
       <c r="G21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="29"/>
+      <c r="I21" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="28"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="6" t="s">
         <v>0</v>
@@ -8371,10 +8101,10 @@
       <c r="T21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="42" t="s">
+      <c r="U21" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="29"/>
+      <c r="V21" s="28"/>
     </row>
     <row r="22" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
@@ -8386,22 +8116,22 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="42" t="s">
+      <c r="L22" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="42" t="s">
+      <c r="M22" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="42" t="s">
+      <c r="N22" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="30"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="7">
         <v>7</v>
       </c>
@@ -8410,52 +8140,52 @@
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="99"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="110"/>
     </row>
     <row r="23" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="46">
+      <c r="B23" s="45">
         <v>8</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>152</v>
+      <c r="C23" s="59" t="s">
+        <v>141</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="159" t="s">
-        <v>144</v>
+      <c r="E23" s="153" t="s">
+        <v>133</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="I23" s="15">
         <v>8</v>
       </c>
-      <c r="J23" s="60" t="s">
-        <v>152</v>
+      <c r="J23" s="59" t="s">
+        <v>141</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="29"/>
+      <c r="O23" s="28"/>
       <c r="P23" s="7">
         <v>8</v>
       </c>
-      <c r="Q23" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="S23" s="159" t="s">
-        <v>144</v>
-      </c>
-      <c r="T23" s="62" t="s">
-        <v>165</v>
+      <c r="Q23" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="S23" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="T23" s="61" t="s">
+        <v>153</v>
       </c>
       <c r="U23" s="7"/>
-      <c r="V23" s="29"/>
+      <c r="V23" s="28"/>
       <c r="W23" s="14"/>
       <c r="X23" s="6" t="s">
         <v>0</v>
@@ -8469,7 +8199,7 @@
       <c r="AA23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AB23" s="42" t="s">
+      <c r="AB23" s="41" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8477,93 +8207,93 @@
       <c r="B24" s="15">
         <v>9</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="160"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="154"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="I24" s="15">
         <v>9</v>
       </c>
-      <c r="J24" s="77"/>
-      <c r="K24" s="124" t="s">
-        <v>162</v>
+      <c r="J24" s="81"/>
+      <c r="K24" s="127" t="s">
+        <v>150</v>
       </c>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="29"/>
+      <c r="O24" s="28"/>
       <c r="P24" s="15">
         <v>9</v>
       </c>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="S24" s="160"/>
-      <c r="T24" s="63"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="S24" s="154"/>
+      <c r="T24" s="62"/>
       <c r="U24" s="12"/>
-      <c r="V24" s="29"/>
+      <c r="V24" s="28"/>
       <c r="W24" s="15">
         <v>9</v>
       </c>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
       <c r="AB24" s="12"/>
     </row>
     <row r="25" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15">
         <v>10</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="161"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="155"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="I25" s="15">
         <v>10</v>
       </c>
-      <c r="J25" s="61"/>
-      <c r="K25" s="125"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="128"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="29"/>
+      <c r="O25" s="28"/>
       <c r="P25" s="15">
         <v>10</v>
       </c>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="125"/>
-      <c r="S25" s="161"/>
-      <c r="T25" s="172" t="s">
-        <v>146</v>
-      </c>
-      <c r="U25" s="43"/>
-      <c r="V25" s="29"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="155"/>
+      <c r="T25" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="U25" s="42"/>
+      <c r="V25" s="28"/>
       <c r="W25" s="15">
         <v>10</v>
       </c>
       <c r="X25" s="12"/>
-      <c r="Y25" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB25" s="43"/>
+      <c r="Y25" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB25" s="42"/>
     </row>
     <row r="26" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15">
         <v>11</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="158" t="s">
-        <v>157</v>
+      <c r="D26" s="156" t="s">
+        <v>146</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -8572,31 +8302,31 @@
         <v>11</v>
       </c>
       <c r="J26" s="12"/>
-      <c r="K26" s="158" t="s">
-        <v>157</v>
+      <c r="K26" s="156" t="s">
+        <v>146</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="29"/>
+      <c r="O26" s="28"/>
       <c r="P26" s="15">
         <v>11</v>
       </c>
       <c r="Q26" s="13"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
-      <c r="T26" s="134"/>
+      <c r="T26" s="131"/>
       <c r="U26" s="12"/>
-      <c r="V26" s="29"/>
+      <c r="V26" s="28"/>
       <c r="W26" s="15">
         <v>11</v>
       </c>
-      <c r="X26" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="100"/>
+      <c r="X26" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="113"/>
       <c r="AB26" s="12"/>
     </row>
     <row r="27" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8604,9 +8334,9 @@
         <v>12</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="149" t="s">
-        <v>149</v>
+      <c r="D27" s="131"/>
+      <c r="E27" s="120" t="s">
+        <v>138</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -8614,34 +8344,34 @@
         <v>12</v>
       </c>
       <c r="J27" s="12"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="149" t="s">
-        <v>149</v>
+      <c r="K27" s="131"/>
+      <c r="L27" s="120" t="s">
+        <v>138</v>
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="29"/>
+      <c r="O27" s="28"/>
       <c r="P27" s="15">
         <v>12</v>
       </c>
       <c r="Q27" s="13"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="149" t="s">
-        <v>149</v>
-      </c>
-      <c r="T27" s="174" t="s">
-        <v>175</v>
+      <c r="S27" s="120" t="s">
+        <v>138</v>
+      </c>
+      <c r="T27" s="152" t="s">
+        <v>163</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="29"/>
+      <c r="V27" s="28"/>
       <c r="W27" s="15">
         <v>12</v>
       </c>
-      <c r="X27" s="96"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="101" t="s">
-        <v>81</v>
+      <c r="X27" s="119"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="111" t="s">
+        <v>71</v>
       </c>
       <c r="AB27" s="12"/>
     </row>
@@ -8651,7 +8381,7 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="150"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="I28" s="15">
@@ -8659,26 +8389,26 @@
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="150"/>
+      <c r="L28" s="121"/>
       <c r="M28" s="12"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="29"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="28"/>
       <c r="P28" s="15">
         <v>13</v>
       </c>
       <c r="Q28" s="12"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="130"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="125"/>
       <c r="U28" s="12"/>
-      <c r="V28" s="29"/>
+      <c r="V28" s="28"/>
       <c r="W28" s="15">
         <v>13</v>
       </c>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="102"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="112"/>
       <c r="AB28" s="12"/>
     </row>
     <row r="29" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8687,37 +8417,37 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="151"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="I29" s="15">
         <v>14</v>
       </c>
       <c r="J29" s="12"/>
-      <c r="K29" s="165" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" s="151"/>
+      <c r="K29" s="162" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="122"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="29"/>
+      <c r="O29" s="28"/>
       <c r="P29" s="15">
         <v>14</v>
       </c>
       <c r="Q29" s="12"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="151"/>
+      <c r="S29" s="122"/>
       <c r="T29" s="7"/>
       <c r="U29" s="13"/>
-      <c r="V29" s="29"/>
+      <c r="V29" s="28"/>
       <c r="W29" s="15">
         <v>14</v>
       </c>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="103" t="s">
-        <v>73</v>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="114" t="s">
+        <v>63</v>
       </c>
       <c r="AB29" s="13"/>
     </row>
@@ -8734,11 +8464,11 @@
         <v>15</v>
       </c>
       <c r="J30" s="12"/>
-      <c r="K30" s="117"/>
+      <c r="K30" s="104"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="29"/>
+      <c r="O30" s="28"/>
       <c r="P30" s="15">
         <v>15</v>
       </c>
@@ -8747,22 +8477,22 @@
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="29"/>
+      <c r="V30" s="28"/>
       <c r="W30" s="15">
         <v>15</v>
       </c>
       <c r="X30" s="12"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="104"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="115"/>
       <c r="AB30" s="13"/>
     </row>
     <row r="31" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15">
         <v>16</v>
       </c>
-      <c r="C31" s="60" t="s">
-        <v>153</v>
+      <c r="C31" s="59" t="s">
+        <v>142</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -8771,77 +8501,77 @@
       <c r="I31" s="15">
         <v>16</v>
       </c>
-      <c r="J31" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="K31" s="118"/>
+      <c r="J31" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" s="105"/>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="O31" s="29"/>
+      <c r="O31" s="28"/>
       <c r="P31" s="15">
         <v>16</v>
       </c>
-      <c r="Q31" s="60" t="s">
-        <v>153</v>
+      <c r="Q31" s="59" t="s">
+        <v>142</v>
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="12"/>
-      <c r="V31" s="29"/>
+      <c r="V31" s="28"/>
       <c r="W31" s="15">
         <v>16</v>
       </c>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="104"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="115"/>
       <c r="AB31" s="12"/>
     </row>
     <row r="32" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="15">
         <v>17</v>
       </c>
-      <c r="C32" s="77"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="162" t="s">
-        <v>151</v>
+      <c r="F32" s="159" t="s">
+        <v>140</v>
       </c>
       <c r="G32" s="7"/>
       <c r="I32" s="15">
         <v>17</v>
       </c>
-      <c r="J32" s="77"/>
+      <c r="J32" s="81"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
-      <c r="M32" s="162" t="s">
-        <v>151</v>
+      <c r="M32" s="159" t="s">
+        <v>140</v>
       </c>
       <c r="N32" s="12"/>
-      <c r="O32" s="29"/>
+      <c r="O32" s="28"/>
       <c r="P32" s="15">
         <v>17</v>
       </c>
-      <c r="Q32" s="77"/>
+      <c r="Q32" s="81"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
-      <c r="T32" s="162" t="s">
-        <v>151</v>
+      <c r="T32" s="159" t="s">
+        <v>140</v>
       </c>
       <c r="U32" s="12"/>
-      <c r="V32" s="29"/>
+      <c r="V32" s="28"/>
       <c r="W32" s="15">
         <v>17</v>
       </c>
       <c r="X32" s="13"/>
-      <c r="Y32" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="44" t="s">
-        <v>91</v>
+      <c r="Y32" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="AB32" s="12"/>
     </row>
@@ -8849,49 +8579,49 @@
       <c r="B33" s="15">
         <v>18</v>
       </c>
-      <c r="C33" s="158" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="131" t="s">
-        <v>163</v>
+      <c r="C33" s="156" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="146" t="s">
+        <v>151</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="163"/>
+      <c r="F33" s="160"/>
       <c r="G33" s="7"/>
       <c r="I33" s="15">
         <v>18</v>
       </c>
-      <c r="J33" s="158" t="s">
-        <v>154</v>
-      </c>
-      <c r="K33" s="131" t="s">
-        <v>160</v>
+      <c r="J33" s="156" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="146" t="s">
+        <v>149</v>
       </c>
       <c r="L33" s="12"/>
-      <c r="M33" s="163"/>
+      <c r="M33" s="160"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="29"/>
+      <c r="O33" s="28"/>
       <c r="P33" s="15">
         <v>18</v>
       </c>
-      <c r="Q33" s="158" t="s">
-        <v>154</v>
+      <c r="Q33" s="156" t="s">
+        <v>143</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="163"/>
+      <c r="T33" s="160"/>
       <c r="U33" s="12"/>
-      <c r="V33" s="29"/>
+      <c r="V33" s="28"/>
       <c r="W33" s="15">
         <v>18</v>
       </c>
       <c r="X33" s="7"/>
-      <c r="Y33" s="60" t="s">
-        <v>89</v>
+      <c r="Y33" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="Z33" s="15"/>
-      <c r="AA33" s="94" t="s">
-        <v>90</v>
+      <c r="AA33" s="92" t="s">
+        <v>80</v>
       </c>
       <c r="AB33" s="12"/>
     </row>
@@ -8899,133 +8629,109 @@
       <c r="B34" s="15">
         <v>19</v>
       </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="166"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="158"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="164"/>
+      <c r="F34" s="161"/>
       <c r="G34" s="7"/>
       <c r="I34" s="15">
         <v>19</v>
       </c>
-      <c r="J34" s="134"/>
-      <c r="K34" s="132"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="147"/>
       <c r="L34" s="12"/>
-      <c r="M34" s="164"/>
+      <c r="M34" s="161"/>
       <c r="N34" s="12"/>
-      <c r="O34" s="29"/>
+      <c r="O34" s="28"/>
       <c r="P34" s="15">
         <v>19</v>
       </c>
-      <c r="Q34" s="134"/>
+      <c r="Q34" s="131"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
-      <c r="T34" s="164"/>
+      <c r="T34" s="161"/>
       <c r="U34" s="13"/>
-      <c r="V34" s="29"/>
+      <c r="V34" s="28"/>
       <c r="W34" s="15">
         <v>19</v>
       </c>
       <c r="X34" s="7"/>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="55" t="s">
-        <v>112</v>
-      </c>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="169"/>
     </row>
     <row r="35" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="15">
         <v>20</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="147" t="s">
-        <v>161</v>
-      </c>
+      <c r="D35" s="169"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="147" t="s">
-        <v>161</v>
-      </c>
+      <c r="F35" s="169"/>
+      <c r="G35" s="169"/>
       <c r="I35" s="15">
         <v>20</v>
       </c>
       <c r="J35" s="12"/>
-      <c r="K35" s="147" t="s">
-        <v>161</v>
-      </c>
+      <c r="K35" s="169"/>
       <c r="L35" s="12"/>
-      <c r="M35" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="N35" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="O35" s="29"/>
+      <c r="M35" s="169"/>
+      <c r="N35" s="169"/>
+      <c r="O35" s="28"/>
       <c r="P35" s="15">
         <v>20</v>
       </c>
       <c r="Q35" s="12"/>
-      <c r="R35" s="147" t="s">
-        <v>161</v>
-      </c>
+      <c r="R35" s="169"/>
       <c r="S35" s="7"/>
-      <c r="T35" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="U35" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="V35" s="29"/>
+      <c r="T35" s="169"/>
+      <c r="U35" s="169"/>
+      <c r="V35" s="28"/>
       <c r="W35" s="15">
         <v>20</v>
       </c>
       <c r="X35" s="12"/>
-      <c r="Y35" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB35" s="57"/>
+      <c r="Y35" s="169"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="169"/>
+      <c r="AB35" s="169"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="15">
         <v>21</v>
       </c>
       <c r="C36" s="7"/>
-      <c r="D36" s="157"/>
+      <c r="D36" s="169"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="169"/>
       <c r="I36" s="15">
         <v>21</v>
       </c>
       <c r="J36" s="12"/>
-      <c r="K36" s="157"/>
+      <c r="K36" s="169"/>
       <c r="L36" s="12"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="157"/>
-      <c r="O36" s="29"/>
+      <c r="M36" s="169"/>
+      <c r="N36" s="169"/>
+      <c r="O36" s="28"/>
       <c r="P36" s="15">
         <v>21</v>
       </c>
       <c r="Q36" s="12"/>
-      <c r="R36" s="157"/>
+      <c r="R36" s="169"/>
       <c r="S36" s="7"/>
-      <c r="T36" s="157"/>
-      <c r="U36" s="157"/>
-      <c r="V36" s="29"/>
+      <c r="T36" s="169"/>
+      <c r="U36" s="169"/>
+      <c r="V36" s="28"/>
       <c r="W36" s="15">
         <v>21</v>
       </c>
       <c r="X36" s="12"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="93"/>
-      <c r="AB36" s="57"/>
+      <c r="Y36" s="169"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="169"/>
+      <c r="AB36" s="169"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="15">
@@ -9042,25 +8748,25 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
+      <c r="M37" s="168"/>
       <c r="N37" s="12"/>
-      <c r="O37" s="29"/>
+      <c r="O37" s="28"/>
       <c r="P37" s="15">
         <v>22</v>
       </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="13"/>
       <c r="S37" s="12"/>
-      <c r="T37" s="45"/>
+      <c r="T37" s="44"/>
       <c r="U37" s="13"/>
-      <c r="V37" s="29"/>
+      <c r="V37" s="28"/>
       <c r="W37" s="15">
         <v>22</v>
       </c>
       <c r="X37" s="12"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="93"/>
+      <c r="Y37" s="169"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="169"/>
       <c r="AB37" s="12"/>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
@@ -9075,48 +8781,48 @@
       <c r="I38" s="15">
         <v>23</v>
       </c>
-      <c r="J38" s="51"/>
+      <c r="J38" s="50"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
-      <c r="O38" s="29"/>
+      <c r="O38" s="28"/>
       <c r="P38" s="15">
         <v>23</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="12"/>
-      <c r="T38" s="32"/>
+      <c r="T38" s="31"/>
       <c r="U38" s="12"/>
-      <c r="V38" s="29"/>
+      <c r="V38" s="28"/>
       <c r="W38" s="15">
         <v>23</v>
       </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
       <c r="AB38" s="12"/>
     </row>
     <row r="39" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="16">
         <v>24</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
       <c r="I39" s="16">
         <v>24</v>
       </c>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="29"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="28"/>
       <c r="P39" s="16">
         <v>24</v>
       </c>
@@ -9125,7 +8831,7 @@
       <c r="S39" s="8"/>
       <c r="T39" s="16"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="29"/>
+      <c r="V39" s="28"/>
       <c r="W39" s="16">
         <v>24</v>
       </c>
@@ -9136,113 +8842,113 @@
       <c r="AB39" s="8"/>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="J41" t="s">
-        <v>159</v>
-      </c>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
+        <v>148</v>
+      </c>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="121"/>
-      <c r="K42" s="121"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="121"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
     </row>
     <row r="44" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
     </row>
     <row r="45" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="75"/>
-      <c r="I45" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q45" s="98"/>
-      <c r="R45" s="98"/>
-      <c r="S45" s="98"/>
-      <c r="T45" s="98"/>
-      <c r="U45" s="99"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="136" t="s">
-        <v>140</v>
-      </c>
-      <c r="X45" s="137"/>
-      <c r="Y45" s="137"/>
-      <c r="Z45" s="137"/>
-      <c r="AA45" s="137"/>
-      <c r="AB45" s="138"/>
+      <c r="B45" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="89"/>
+      <c r="I45" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="109"/>
+      <c r="U45" s="110"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="135" t="s">
+        <v>129</v>
+      </c>
+      <c r="X45" s="136"/>
+      <c r="Y45" s="136"/>
+      <c r="Z45" s="136"/>
+      <c r="AA45" s="136"/>
+      <c r="AB45" s="137"/>
     </row>
     <row r="46" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
@@ -9277,7 +8983,7 @@
       <c r="N46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O46" s="29"/>
+      <c r="O46" s="28"/>
       <c r="P46" s="14"/>
       <c r="Q46" s="6" t="s">
         <v>0</v>
@@ -9294,7 +9000,7 @@
       <c r="U46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V46" s="29"/>
+      <c r="V46" s="28"/>
       <c r="W46" s="14"/>
       <c r="X46" s="6" t="s">
         <v>0</v>
@@ -9317,9 +9023,9 @@
         <v>7</v>
       </c>
       <c r="C47" s="7"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="7"/>
       <c r="I47" s="15">
         <v>7</v>
@@ -9329,7 +9035,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="29"/>
+      <c r="O47" s="28"/>
       <c r="P47" s="15">
         <v>7</v>
       </c>
@@ -9338,7 +9044,7 @@
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
-      <c r="V47" s="29"/>
+      <c r="V47" s="28"/>
       <c r="W47" s="15">
         <v>7</v>
       </c>
@@ -9354,8 +9060,8 @@
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="159" t="s">
-        <v>144</v>
+      <c r="E48" s="153" t="s">
+        <v>133</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -9364,22 +9070,22 @@
       </c>
       <c r="J48" s="7"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="62" t="s">
-        <v>165</v>
+      <c r="M48" s="61" t="s">
+        <v>153</v>
       </c>
       <c r="N48" s="7"/>
-      <c r="O48" s="29"/>
+      <c r="O48" s="28"/>
       <c r="P48" s="15">
         <v>8</v>
       </c>
-      <c r="Q48" s="60" t="s">
-        <v>152</v>
+      <c r="Q48" s="59" t="s">
+        <v>141</v>
       </c>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
-      <c r="V48" s="29"/>
+      <c r="V48" s="28"/>
       <c r="W48" s="15">
         <v>8</v>
       </c>
@@ -9395,29 +9101,29 @@
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="160"/>
+      <c r="E49" s="154"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="I49" s="15">
         <v>9</v>
       </c>
       <c r="J49" s="7"/>
-      <c r="K49" s="124" t="s">
-        <v>164</v>
+      <c r="K49" s="127" t="s">
+        <v>152</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="63"/>
+      <c r="M49" s="62"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="29"/>
+      <c r="O49" s="28"/>
       <c r="P49" s="15">
         <v>9</v>
       </c>
-      <c r="Q49" s="77"/>
+      <c r="Q49" s="81"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
-      <c r="V49" s="29"/>
+      <c r="V49" s="28"/>
       <c r="W49" s="15">
         <v>9</v>
       </c>
@@ -9433,29 +9139,29 @@
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="161"/>
+      <c r="E50" s="155"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="I50" s="15">
         <v>10</v>
       </c>
       <c r="J50" s="7"/>
-      <c r="K50" s="125"/>
+      <c r="K50" s="128"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="29"/>
+      <c r="O50" s="28"/>
       <c r="P50" s="15">
         <v>10</v>
       </c>
-      <c r="Q50" s="61"/>
+      <c r="Q50" s="60"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
-      <c r="T50" s="172" t="s">
-        <v>146</v>
+      <c r="T50" s="151" t="s">
+        <v>135</v>
       </c>
       <c r="U50" s="7"/>
-      <c r="V50" s="29"/>
+      <c r="V50" s="28"/>
       <c r="W50" s="15">
         <v>10</v>
       </c>
@@ -9472,8 +9178,8 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="167" t="s">
-        <v>167</v>
+      <c r="F51" s="163" t="s">
+        <v>155</v>
       </c>
       <c r="G51" s="7"/>
       <c r="I51" s="15">
@@ -9484,18 +9190,18 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="29"/>
+      <c r="O51" s="28"/>
       <c r="P51" s="15">
         <v>11</v>
       </c>
       <c r="Q51" s="7"/>
-      <c r="R51" s="158" t="s">
-        <v>157</v>
+      <c r="R51" s="156" t="s">
+        <v>146</v>
       </c>
       <c r="S51" s="7"/>
-      <c r="T51" s="134"/>
+      <c r="T51" s="131"/>
       <c r="U51" s="7"/>
-      <c r="V51" s="29"/>
+      <c r="V51" s="28"/>
       <c r="W51" s="15">
         <v>11</v>
       </c>
@@ -9512,7 +9218,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="168"/>
+      <c r="F52" s="164"/>
       <c r="G52" s="7"/>
       <c r="I52" s="15">
         <v>12</v>
@@ -9522,23 +9228,23 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="29"/>
+      <c r="O52" s="28"/>
       <c r="P52" s="15">
         <v>12</v>
       </c>
       <c r="Q52" s="7"/>
-      <c r="R52" s="134"/>
+      <c r="R52" s="131"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
-      <c r="V52" s="29"/>
+      <c r="V52" s="28"/>
       <c r="W52" s="15">
         <v>12</v>
       </c>
       <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
-      <c r="Z52" s="149" t="s">
-        <v>149</v>
+      <c r="Z52" s="120" t="s">
+        <v>138</v>
       </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
@@ -9550,7 +9256,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="168"/>
+      <c r="F53" s="164"/>
       <c r="G53" s="7"/>
       <c r="I53" s="15">
         <v>13</v>
@@ -9560,7 +9266,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="29"/>
+      <c r="O53" s="28"/>
       <c r="P53" s="15">
         <v>13</v>
       </c>
@@ -9569,13 +9275,13 @@
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
-      <c r="V53" s="29"/>
+      <c r="V53" s="28"/>
       <c r="W53" s="15">
         <v>13</v>
       </c>
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
-      <c r="Z53" s="150"/>
+      <c r="Z53" s="121"/>
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
     </row>
@@ -9584,11 +9290,11 @@
         <v>14</v>
       </c>
       <c r="C54" s="7"/>
-      <c r="D54" s="165" t="s">
-        <v>143</v>
+      <c r="D54" s="162" t="s">
+        <v>132</v>
       </c>
       <c r="E54" s="7"/>
-      <c r="F54" s="168"/>
+      <c r="F54" s="164"/>
       <c r="G54" s="7"/>
       <c r="I54" s="15">
         <v>14</v>
@@ -9598,7 +9304,7 @@
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="29"/>
+      <c r="O54" s="28"/>
       <c r="P54" s="15">
         <v>14</v>
       </c>
@@ -9607,13 +9313,13 @@
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
-      <c r="V54" s="29"/>
+      <c r="V54" s="28"/>
       <c r="W54" s="15">
         <v>14</v>
       </c>
       <c r="X54" s="7"/>
       <c r="Y54" s="7"/>
-      <c r="Z54" s="151"/>
+      <c r="Z54" s="122"/>
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
     </row>
@@ -9621,12 +9327,12 @@
       <c r="B55" s="15">
         <v>15</v>
       </c>
-      <c r="C55" s="170" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="117"/>
+      <c r="C55" s="166" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="104"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="169"/>
+      <c r="F55" s="165"/>
       <c r="G55" s="7"/>
       <c r="I55" s="15">
         <v>15</v>
@@ -9636,7 +9342,7 @@
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="29"/>
+      <c r="O55" s="28"/>
       <c r="P55" s="15">
         <v>15</v>
       </c>
@@ -9645,7 +9351,7 @@
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
-      <c r="V55" s="29"/>
+      <c r="V55" s="28"/>
       <c r="W55" s="15">
         <v>15</v>
       </c>
@@ -9659,10 +9365,10 @@
       <c r="B56" s="15">
         <v>16</v>
       </c>
-      <c r="C56" s="171"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="174" t="s">
-        <v>166</v>
+      <c r="C56" s="167"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="152" t="s">
+        <v>154</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -9674,18 +9380,18 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="29"/>
+      <c r="O56" s="28"/>
       <c r="P56" s="15">
         <v>16</v>
       </c>
-      <c r="Q56" s="60" t="s">
-        <v>153</v>
+      <c r="Q56" s="59" t="s">
+        <v>142</v>
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
-      <c r="V56" s="29"/>
+      <c r="V56" s="28"/>
       <c r="W56" s="15">
         <v>16</v>
       </c>
@@ -9699,11 +9405,11 @@
       <c r="B57" s="15">
         <v>17</v>
       </c>
-      <c r="C57" s="167" t="s">
-        <v>169</v>
+      <c r="C57" s="163" t="s">
+        <v>157</v>
       </c>
       <c r="D57" s="7"/>
-      <c r="E57" s="130"/>
+      <c r="E57" s="125"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="I57" s="15">
@@ -9714,30 +9420,30 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="29"/>
+      <c r="O57" s="28"/>
       <c r="P57" s="15">
         <v>17</v>
       </c>
-      <c r="Q57" s="77"/>
+      <c r="Q57" s="81"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="172" t="s">
-        <v>145</v>
-      </c>
-      <c r="T57" s="172" t="s">
-        <v>147</v>
+      <c r="S57" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="T57" s="151" t="s">
+        <v>136</v>
       </c>
       <c r="U57" s="7"/>
-      <c r="V57" s="29"/>
+      <c r="V57" s="28"/>
       <c r="W57" s="15">
         <v>17</v>
       </c>
-      <c r="X57" s="162" t="s">
-        <v>150</v>
+      <c r="X57" s="159" t="s">
+        <v>139</v>
       </c>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
-      <c r="AA57" s="162" t="s">
-        <v>151</v>
+      <c r="AA57" s="159" t="s">
+        <v>140</v>
       </c>
       <c r="AB57" s="7"/>
     </row>
@@ -9745,10 +9451,10 @@
       <c r="B58" s="15">
         <v>18</v>
       </c>
-      <c r="C58" s="168"/>
+      <c r="C58" s="164"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="167" t="s">
-        <v>169</v>
+      <c r="E58" s="163" t="s">
+        <v>157</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -9756,69 +9462,69 @@
         <v>18</v>
       </c>
       <c r="J58" s="7"/>
-      <c r="K58" s="131" t="s">
-        <v>163</v>
+      <c r="K58" s="146" t="s">
+        <v>151</v>
       </c>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="29"/>
+      <c r="O58" s="28"/>
       <c r="P58" s="15">
         <v>18</v>
       </c>
-      <c r="Q58" s="158" t="s">
-        <v>154</v>
+      <c r="Q58" s="156" t="s">
+        <v>143</v>
       </c>
       <c r="R58" s="7"/>
-      <c r="S58" s="173"/>
-      <c r="T58" s="173"/>
+      <c r="S58" s="157"/>
+      <c r="T58" s="157"/>
       <c r="U58" s="7"/>
-      <c r="V58" s="29"/>
+      <c r="V58" s="28"/>
       <c r="W58" s="15">
         <v>18</v>
       </c>
-      <c r="X58" s="163"/>
+      <c r="X58" s="160"/>
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
-      <c r="AA58" s="163"/>
+      <c r="AA58" s="160"/>
       <c r="AB58" s="7"/>
     </row>
     <row r="59" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="15">
         <v>19</v>
       </c>
-      <c r="C59" s="169"/>
+      <c r="C59" s="165"/>
       <c r="D59" s="7"/>
-      <c r="E59" s="169"/>
+      <c r="E59" s="165"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="I59" s="15">
         <v>19</v>
       </c>
       <c r="J59" s="7"/>
-      <c r="K59" s="166"/>
+      <c r="K59" s="158"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="29"/>
+      <c r="O59" s="28"/>
       <c r="P59" s="15">
         <v>19</v>
       </c>
-      <c r="Q59" s="134"/>
+      <c r="Q59" s="131"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="158" t="s">
-        <v>158</v>
+      <c r="S59" s="156" t="s">
+        <v>147</v>
       </c>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
-      <c r="V59" s="29"/>
+      <c r="V59" s="28"/>
       <c r="W59" s="15">
         <v>19</v>
       </c>
-      <c r="X59" s="164"/>
+      <c r="X59" s="161"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
-      <c r="AA59" s="164"/>
+      <c r="AA59" s="161"/>
       <c r="AB59" s="7"/>
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.25">
@@ -9838,16 +9544,16 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="29"/>
+      <c r="O60" s="28"/>
       <c r="P60" s="15">
         <v>20</v>
       </c>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="173"/>
+      <c r="S60" s="157"/>
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
-      <c r="V60" s="29"/>
+      <c r="V60" s="28"/>
       <c r="W60" s="15">
         <v>20</v>
       </c>
@@ -9874,7 +9580,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="29"/>
+      <c r="O61" s="28"/>
       <c r="P61" s="15">
         <v>21</v>
       </c>
@@ -9883,7 +9589,7 @@
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
-      <c r="V61" s="29"/>
+      <c r="V61" s="28"/>
       <c r="W61" s="15">
         <v>21</v>
       </c>
@@ -9910,7 +9616,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="29"/>
+      <c r="O62" s="28"/>
       <c r="P62" s="15">
         <v>22</v>
       </c>
@@ -9919,7 +9625,7 @@
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
-      <c r="V62" s="29"/>
+      <c r="V62" s="28"/>
       <c r="W62" s="15">
         <v>22</v>
       </c>
@@ -9946,7 +9652,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="29"/>
+      <c r="O63" s="28"/>
       <c r="P63" s="15">
         <v>23</v>
       </c>
@@ -9955,7 +9661,7 @@
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
-      <c r="V63" s="29"/>
+      <c r="V63" s="28"/>
       <c r="W63" s="15">
         <v>23</v>
       </c>
@@ -9978,7 +9684,7 @@
         <v>24</v>
       </c>
       <c r="J64" s="8"/>
-      <c r="K64" s="23"/>
+      <c r="K64" s="22"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
@@ -9986,7 +9692,7 @@
         <v>24</v>
       </c>
       <c r="Q64" s="8"/>
-      <c r="R64" s="23"/>
+      <c r="R64" s="22"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
@@ -9994,7 +9700,7 @@
         <v>24</v>
       </c>
       <c r="X64" s="8"/>
-      <c r="Y64" s="23"/>
+      <c r="Y64" s="22"/>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8"/>
       <c r="AB64" s="8"/>
@@ -10012,7 +9718,7 @@
         <v>24</v>
       </c>
       <c r="J65" s="8"/>
-      <c r="K65" s="23"/>
+      <c r="K65" s="22"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
@@ -10020,7 +9726,7 @@
         <v>24</v>
       </c>
       <c r="Q65" s="8"/>
-      <c r="R65" s="23"/>
+      <c r="R65" s="22"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
@@ -10028,74 +9734,61 @@
         <v>24</v>
       </c>
       <c r="X65" s="8"/>
-      <c r="Y65" s="23"/>
+      <c r="Y65" s="22"/>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8"/>
       <c r="AB65" s="8"/>
     </row>
     <row r="67" spans="2:28" x14ac:dyDescent="0.25">
       <c r="Q67" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="J68" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="Q68" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>171</v>
-      </c>
-      <c r="J69" s="53"/>
-      <c r="Q69" s="49"/>
+        <v>159</v>
+      </c>
+      <c r="J69" s="52"/>
+      <c r="Q69" s="48"/>
     </row>
     <row r="71" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="AA29:AA31"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="P20:U20"/>
-    <mergeCell ref="W22:AB22"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="Y25:Y27"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="W45:AB45"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="AB34:AB36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="Y35:Y37"/>
-    <mergeCell ref="AA35:AA37"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="I45:N45"/>
-    <mergeCell ref="P45:U45"/>
-    <mergeCell ref="Q48:Q50"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="R51:R52"/>
+  <mergeCells count="66">
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="K33:K34"/>
     <mergeCell ref="K58:K59"/>
     <mergeCell ref="AA57:AA59"/>
     <mergeCell ref="D54:D56"/>
@@ -10108,35 +9801,36 @@
     <mergeCell ref="X57:X59"/>
     <mergeCell ref="T50:T51"/>
     <mergeCell ref="E56:E57"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="I45:N45"/>
+    <mergeCell ref="P45:U45"/>
+    <mergeCell ref="Q48:Q50"/>
+    <mergeCell ref="W45:AB45"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AA29:AA31"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="P20:U20"/>
+    <mergeCell ref="W22:AB22"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="Y25:Y27"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="T27:T28"/>
     <mergeCell ref="R24:R25"/>
     <mergeCell ref="T23:T24"/>
     <mergeCell ref="Q23:Q25"/>
     <mergeCell ref="S27:S29"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.78" bottom="0.3" header="0.61" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="28" orientation="landscape" r:id="rId1"/>
